--- a/ASAwards/AthenaSWANAwardList2012_201520160316.xlsx
+++ b/ASAwards/AthenaSWANAwardList2012_201520160316.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="15260" windowHeight="16260" tabRatio="850"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="850"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -2254,8 +2254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y986"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D557" sqref="D557"/>
+    <sheetView tabSelected="1" topLeftCell="A550" workbookViewId="0">
+      <selection activeCell="A567" sqref="A567:F731"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -17360,501 +17360,6 @@
       <c r="X566" s="2"/>
       <c r="Y566" s="2"/>
     </row>
-    <row r="567" spans="1:25" ht="16">
-      <c r="F567" s="2"/>
-    </row>
-    <row r="568" spans="1:25" ht="16">
-      <c r="F568" s="2"/>
-    </row>
-    <row r="569" spans="1:25" ht="16">
-      <c r="F569" s="2"/>
-    </row>
-    <row r="570" spans="1:25" ht="16">
-      <c r="F570" s="2"/>
-    </row>
-    <row r="571" spans="1:25" ht="16">
-      <c r="F571" s="2"/>
-    </row>
-    <row r="572" spans="1:25" ht="16">
-      <c r="F572" s="2"/>
-    </row>
-    <row r="573" spans="1:25" ht="16">
-      <c r="F573" s="2"/>
-    </row>
-    <row r="574" spans="1:25" ht="16">
-      <c r="F574" s="2"/>
-    </row>
-    <row r="575" spans="1:25" ht="16">
-      <c r="F575" s="2"/>
-    </row>
-    <row r="576" spans="1:25" ht="16">
-      <c r="F576" s="2"/>
-    </row>
-    <row r="577" spans="6:6" ht="16">
-      <c r="F577" s="2"/>
-    </row>
-    <row r="578" spans="6:6" ht="16">
-      <c r="F578" s="2"/>
-    </row>
-    <row r="579" spans="6:6" ht="16">
-      <c r="F579" s="2"/>
-    </row>
-    <row r="580" spans="6:6" ht="16">
-      <c r="F580" s="2"/>
-    </row>
-    <row r="581" spans="6:6" ht="16">
-      <c r="F581" s="2"/>
-    </row>
-    <row r="582" spans="6:6" ht="16">
-      <c r="F582" s="2"/>
-    </row>
-    <row r="583" spans="6:6" ht="16">
-      <c r="F583" s="2"/>
-    </row>
-    <row r="584" spans="6:6" ht="16">
-      <c r="F584" s="2"/>
-    </row>
-    <row r="585" spans="6:6" ht="16">
-      <c r="F585" s="2"/>
-    </row>
-    <row r="586" spans="6:6" ht="16">
-      <c r="F586" s="2"/>
-    </row>
-    <row r="587" spans="6:6" ht="16">
-      <c r="F587" s="2"/>
-    </row>
-    <row r="588" spans="6:6" ht="16">
-      <c r="F588" s="2"/>
-    </row>
-    <row r="589" spans="6:6" ht="16">
-      <c r="F589" s="2"/>
-    </row>
-    <row r="590" spans="6:6" ht="16">
-      <c r="F590" s="2"/>
-    </row>
-    <row r="591" spans="6:6" ht="16">
-      <c r="F591" s="2"/>
-    </row>
-    <row r="592" spans="6:6" ht="16">
-      <c r="F592" s="2"/>
-    </row>
-    <row r="593" spans="6:6" ht="16">
-      <c r="F593" s="2"/>
-    </row>
-    <row r="594" spans="6:6" ht="16">
-      <c r="F594" s="2"/>
-    </row>
-    <row r="595" spans="6:6" ht="16">
-      <c r="F595" s="2"/>
-    </row>
-    <row r="596" spans="6:6" ht="16">
-      <c r="F596" s="2"/>
-    </row>
-    <row r="597" spans="6:6" ht="16">
-      <c r="F597" s="2"/>
-    </row>
-    <row r="598" spans="6:6" ht="16">
-      <c r="F598" s="2"/>
-    </row>
-    <row r="599" spans="6:6" ht="16">
-      <c r="F599" s="2"/>
-    </row>
-    <row r="600" spans="6:6" ht="16">
-      <c r="F600" s="2"/>
-    </row>
-    <row r="601" spans="6:6" ht="16">
-      <c r="F601" s="2"/>
-    </row>
-    <row r="602" spans="6:6" ht="16">
-      <c r="F602" s="2"/>
-    </row>
-    <row r="603" spans="6:6" ht="16">
-      <c r="F603" s="2"/>
-    </row>
-    <row r="604" spans="6:6" ht="16">
-      <c r="F604" s="2"/>
-    </row>
-    <row r="605" spans="6:6" ht="16">
-      <c r="F605" s="2"/>
-    </row>
-    <row r="606" spans="6:6" ht="16">
-      <c r="F606" s="2"/>
-    </row>
-    <row r="607" spans="6:6" ht="16">
-      <c r="F607" s="2"/>
-    </row>
-    <row r="608" spans="6:6" ht="16">
-      <c r="F608" s="2"/>
-    </row>
-    <row r="609" spans="6:6" ht="16">
-      <c r="F609" s="2"/>
-    </row>
-    <row r="610" spans="6:6" ht="16">
-      <c r="F610" s="2"/>
-    </row>
-    <row r="611" spans="6:6" ht="16">
-      <c r="F611" s="2"/>
-    </row>
-    <row r="612" spans="6:6" ht="16">
-      <c r="F612" s="2"/>
-    </row>
-    <row r="613" spans="6:6" ht="16">
-      <c r="F613" s="2"/>
-    </row>
-    <row r="614" spans="6:6" ht="16">
-      <c r="F614" s="2"/>
-    </row>
-    <row r="615" spans="6:6" ht="16">
-      <c r="F615" s="2"/>
-    </row>
-    <row r="616" spans="6:6" ht="16">
-      <c r="F616" s="2"/>
-    </row>
-    <row r="617" spans="6:6" ht="16">
-      <c r="F617" s="2"/>
-    </row>
-    <row r="618" spans="6:6" ht="16">
-      <c r="F618" s="2"/>
-    </row>
-    <row r="619" spans="6:6" ht="16">
-      <c r="F619" s="2"/>
-    </row>
-    <row r="620" spans="6:6" ht="16">
-      <c r="F620" s="2"/>
-    </row>
-    <row r="621" spans="6:6" ht="16">
-      <c r="F621" s="2"/>
-    </row>
-    <row r="622" spans="6:6" ht="16">
-      <c r="F622" s="2"/>
-    </row>
-    <row r="623" spans="6:6" ht="16">
-      <c r="F623" s="2"/>
-    </row>
-    <row r="624" spans="6:6" ht="16">
-      <c r="F624" s="2"/>
-    </row>
-    <row r="625" spans="6:6" ht="16">
-      <c r="F625" s="2"/>
-    </row>
-    <row r="626" spans="6:6" ht="16">
-      <c r="F626" s="2"/>
-    </row>
-    <row r="627" spans="6:6" ht="16">
-      <c r="F627" s="2"/>
-    </row>
-    <row r="628" spans="6:6" ht="16">
-      <c r="F628" s="2"/>
-    </row>
-    <row r="629" spans="6:6" ht="16">
-      <c r="F629" s="2"/>
-    </row>
-    <row r="630" spans="6:6" ht="16">
-      <c r="F630" s="2"/>
-    </row>
-    <row r="631" spans="6:6" ht="16">
-      <c r="F631" s="2"/>
-    </row>
-    <row r="632" spans="6:6" ht="16">
-      <c r="F632" s="2"/>
-    </row>
-    <row r="633" spans="6:6" ht="16">
-      <c r="F633" s="2"/>
-    </row>
-    <row r="634" spans="6:6" ht="16">
-      <c r="F634" s="2"/>
-    </row>
-    <row r="635" spans="6:6" ht="16">
-      <c r="F635" s="2"/>
-    </row>
-    <row r="636" spans="6:6" ht="16">
-      <c r="F636" s="2"/>
-    </row>
-    <row r="637" spans="6:6" ht="16">
-      <c r="F637" s="2"/>
-    </row>
-    <row r="638" spans="6:6" ht="16">
-      <c r="F638" s="2"/>
-    </row>
-    <row r="639" spans="6:6" ht="16">
-      <c r="F639" s="2"/>
-    </row>
-    <row r="640" spans="6:6" ht="16">
-      <c r="F640" s="2"/>
-    </row>
-    <row r="641" spans="6:6" ht="16">
-      <c r="F641" s="2"/>
-    </row>
-    <row r="642" spans="6:6" ht="16">
-      <c r="F642" s="2"/>
-    </row>
-    <row r="643" spans="6:6" ht="16">
-      <c r="F643" s="2"/>
-    </row>
-    <row r="644" spans="6:6" ht="16">
-      <c r="F644" s="2"/>
-    </row>
-    <row r="645" spans="6:6" ht="16">
-      <c r="F645" s="2"/>
-    </row>
-    <row r="646" spans="6:6" ht="16">
-      <c r="F646" s="2"/>
-    </row>
-    <row r="647" spans="6:6" ht="16">
-      <c r="F647" s="2"/>
-    </row>
-    <row r="648" spans="6:6" ht="16">
-      <c r="F648" s="2"/>
-    </row>
-    <row r="649" spans="6:6" ht="16">
-      <c r="F649" s="2"/>
-    </row>
-    <row r="650" spans="6:6" ht="16">
-      <c r="F650" s="2"/>
-    </row>
-    <row r="651" spans="6:6" ht="16">
-      <c r="F651" s="2"/>
-    </row>
-    <row r="652" spans="6:6" ht="16">
-      <c r="F652" s="2"/>
-    </row>
-    <row r="653" spans="6:6" ht="16">
-      <c r="F653" s="2"/>
-    </row>
-    <row r="654" spans="6:6" ht="16">
-      <c r="F654" s="2"/>
-    </row>
-    <row r="655" spans="6:6" ht="16">
-      <c r="F655" s="2"/>
-    </row>
-    <row r="656" spans="6:6" ht="16">
-      <c r="F656" s="2"/>
-    </row>
-    <row r="657" spans="6:6" ht="16">
-      <c r="F657" s="2"/>
-    </row>
-    <row r="658" spans="6:6" ht="16">
-      <c r="F658" s="2"/>
-    </row>
-    <row r="659" spans="6:6" ht="16">
-      <c r="F659" s="2"/>
-    </row>
-    <row r="660" spans="6:6" ht="16">
-      <c r="F660" s="2"/>
-    </row>
-    <row r="661" spans="6:6" ht="16">
-      <c r="F661" s="2"/>
-    </row>
-    <row r="662" spans="6:6" ht="16">
-      <c r="F662" s="2"/>
-    </row>
-    <row r="663" spans="6:6" ht="16">
-      <c r="F663" s="2"/>
-    </row>
-    <row r="664" spans="6:6" ht="16">
-      <c r="F664" s="2"/>
-    </row>
-    <row r="665" spans="6:6" ht="16">
-      <c r="F665" s="2"/>
-    </row>
-    <row r="666" spans="6:6" ht="16">
-      <c r="F666" s="2"/>
-    </row>
-    <row r="667" spans="6:6" ht="16">
-      <c r="F667" s="2"/>
-    </row>
-    <row r="668" spans="6:6" ht="16">
-      <c r="F668" s="2"/>
-    </row>
-    <row r="669" spans="6:6" ht="16">
-      <c r="F669" s="2"/>
-    </row>
-    <row r="670" spans="6:6" ht="16">
-      <c r="F670" s="2"/>
-    </row>
-    <row r="671" spans="6:6" ht="16">
-      <c r="F671" s="2"/>
-    </row>
-    <row r="672" spans="6:6" ht="16">
-      <c r="F672" s="2"/>
-    </row>
-    <row r="673" spans="6:6" ht="16">
-      <c r="F673" s="2"/>
-    </row>
-    <row r="674" spans="6:6" ht="16">
-      <c r="F674" s="2"/>
-    </row>
-    <row r="675" spans="6:6" ht="16">
-      <c r="F675" s="2"/>
-    </row>
-    <row r="676" spans="6:6" ht="16">
-      <c r="F676" s="2"/>
-    </row>
-    <row r="677" spans="6:6" ht="16">
-      <c r="F677" s="2"/>
-    </row>
-    <row r="678" spans="6:6" ht="16">
-      <c r="F678" s="2"/>
-    </row>
-    <row r="679" spans="6:6" ht="16">
-      <c r="F679" s="2"/>
-    </row>
-    <row r="680" spans="6:6" ht="16">
-      <c r="F680" s="2"/>
-    </row>
-    <row r="681" spans="6:6" ht="16">
-      <c r="F681" s="2"/>
-    </row>
-    <row r="682" spans="6:6" ht="16">
-      <c r="F682" s="2"/>
-    </row>
-    <row r="683" spans="6:6" ht="16">
-      <c r="F683" s="2"/>
-    </row>
-    <row r="684" spans="6:6" ht="16">
-      <c r="F684" s="2"/>
-    </row>
-    <row r="685" spans="6:6" ht="16">
-      <c r="F685" s="2"/>
-    </row>
-    <row r="686" spans="6:6" ht="16">
-      <c r="F686" s="2"/>
-    </row>
-    <row r="687" spans="6:6" ht="16">
-      <c r="F687" s="2"/>
-    </row>
-    <row r="688" spans="6:6" ht="16">
-      <c r="F688" s="2"/>
-    </row>
-    <row r="689" spans="6:6" ht="16">
-      <c r="F689" s="2"/>
-    </row>
-    <row r="690" spans="6:6" ht="16">
-      <c r="F690" s="2"/>
-    </row>
-    <row r="691" spans="6:6" ht="16">
-      <c r="F691" s="2"/>
-    </row>
-    <row r="692" spans="6:6" ht="16">
-      <c r="F692" s="2"/>
-    </row>
-    <row r="693" spans="6:6" ht="16">
-      <c r="F693" s="2"/>
-    </row>
-    <row r="694" spans="6:6" ht="16">
-      <c r="F694" s="2"/>
-    </row>
-    <row r="695" spans="6:6" ht="16">
-      <c r="F695" s="2"/>
-    </row>
-    <row r="696" spans="6:6" ht="16">
-      <c r="F696" s="2"/>
-    </row>
-    <row r="697" spans="6:6" ht="16">
-      <c r="F697" s="2"/>
-    </row>
-    <row r="698" spans="6:6" ht="16">
-      <c r="F698" s="2"/>
-    </row>
-    <row r="699" spans="6:6" ht="16">
-      <c r="F699" s="2"/>
-    </row>
-    <row r="700" spans="6:6" ht="16">
-      <c r="F700" s="2"/>
-    </row>
-    <row r="701" spans="6:6" ht="16">
-      <c r="F701" s="2"/>
-    </row>
-    <row r="702" spans="6:6" ht="16">
-      <c r="F702" s="2"/>
-    </row>
-    <row r="703" spans="6:6" ht="16">
-      <c r="F703" s="2"/>
-    </row>
-    <row r="704" spans="6:6" ht="16">
-      <c r="F704" s="2"/>
-    </row>
-    <row r="705" spans="6:6" ht="16">
-      <c r="F705" s="2"/>
-    </row>
-    <row r="706" spans="6:6" ht="16">
-      <c r="F706" s="2"/>
-    </row>
-    <row r="707" spans="6:6" ht="16">
-      <c r="F707" s="2"/>
-    </row>
-    <row r="708" spans="6:6" ht="16">
-      <c r="F708" s="2"/>
-    </row>
-    <row r="709" spans="6:6" ht="16">
-      <c r="F709" s="2"/>
-    </row>
-    <row r="710" spans="6:6" ht="16">
-      <c r="F710" s="2"/>
-    </row>
-    <row r="711" spans="6:6" ht="16">
-      <c r="F711" s="2"/>
-    </row>
-    <row r="712" spans="6:6" ht="16">
-      <c r="F712" s="2"/>
-    </row>
-    <row r="713" spans="6:6" ht="16">
-      <c r="F713" s="2"/>
-    </row>
-    <row r="714" spans="6:6" ht="16">
-      <c r="F714" s="2"/>
-    </row>
-    <row r="715" spans="6:6" ht="16">
-      <c r="F715" s="2"/>
-    </row>
-    <row r="716" spans="6:6" ht="16">
-      <c r="F716" s="2"/>
-    </row>
-    <row r="717" spans="6:6" ht="16">
-      <c r="F717" s="2"/>
-    </row>
-    <row r="718" spans="6:6" ht="16">
-      <c r="F718" s="2"/>
-    </row>
-    <row r="719" spans="6:6" ht="16">
-      <c r="F719" s="2"/>
-    </row>
-    <row r="720" spans="6:6" ht="16">
-      <c r="F720" s="2"/>
-    </row>
-    <row r="721" spans="6:6" ht="16">
-      <c r="F721" s="2"/>
-    </row>
-    <row r="722" spans="6:6" ht="16">
-      <c r="F722" s="2"/>
-    </row>
-    <row r="723" spans="6:6" ht="16">
-      <c r="F723" s="2"/>
-    </row>
-    <row r="724" spans="6:6" ht="16">
-      <c r="F724" s="2"/>
-    </row>
-    <row r="725" spans="6:6" ht="16">
-      <c r="F725" s="2"/>
-    </row>
-    <row r="726" spans="6:6" ht="16">
-      <c r="F726" s="2"/>
-    </row>
-    <row r="727" spans="6:6" ht="16">
-      <c r="F727" s="2"/>
-    </row>
-    <row r="728" spans="6:6" ht="16">
-      <c r="F728" s="2"/>
-    </row>
-    <row r="729" spans="6:6" ht="16">
-      <c r="F729" s="2"/>
-    </row>
-    <row r="730" spans="6:6" ht="16">
-      <c r="F730" s="2"/>
-    </row>
-    <row r="731" spans="6:6" ht="16">
-      <c r="F731" s="2"/>
-    </row>
     <row r="732" spans="6:6" ht="16">
       <c r="F732" s="2"/>
     </row>

--- a/ASAwards/AthenaSWANAwardList2012_201520160316.xlsx
+++ b/ASAwards/AthenaSWANAwardList2012_201520160316.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="850"/>
+    <workbookView xWindow="8900" yWindow="0" windowWidth="25040" windowHeight="15500" tabRatio="850"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2986" uniqueCount="558">
   <si>
     <t>Bangor University, School of Sport, Health and Exercise Sciences</t>
   </si>
@@ -357,51 +357,24 @@
     <t>Anglia Ruskin University</t>
   </si>
   <si>
-    <t>Aston University (renewal)</t>
-  </si>
-  <si>
-    <t>Bangor University (renewal)</t>
-  </si>
-  <si>
-    <t>Durham University (renewal)</t>
-  </si>
-  <si>
     <t>Edinburgh Napier University</t>
   </si>
   <si>
-    <t>Lancaster University (renewal)</t>
-  </si>
-  <si>
-    <t>London School of Hygiene &amp; Tropical Medicine (renewal)</t>
-  </si>
-  <si>
     <t>MRC Cognition and Brain Sciences Unit</t>
   </si>
   <si>
     <t>MRC Toxicology Unit</t>
   </si>
   <si>
-    <t>University of Birmingham (renewal)</t>
-  </si>
-  <si>
     <t>University of Chester</t>
   </si>
   <si>
-    <t>University of Exeter (renewal)</t>
-  </si>
-  <si>
     <t>University of Greenwich</t>
   </si>
   <si>
     <t>University of Hertfordshire</t>
   </si>
   <si>
-    <t>University of Leicester (renewal)</t>
-  </si>
-  <si>
-    <t>University of Manchester (renewal)</t>
-  </si>
-  <si>
     <t>Brighton and Sussex Medical School</t>
   </si>
   <si>
@@ -417,9 +390,6 @@
     <t>Keele University – School of Health and Rehabilitation</t>
   </si>
   <si>
-    <t>Keele University – School of Medicine and Institute for Science and Technology in Medicine (renewal)</t>
-  </si>
-  <si>
     <t>King’s College London – Division of Cancer Studies</t>
   </si>
   <si>
@@ -504,9 +474,6 @@
     <t>University of Cambridge – Department of Genetics</t>
   </si>
   <si>
-    <t>University of Cambridge – Department of Psychology (renewal)</t>
-  </si>
-  <si>
     <t>university of Cambridge – Sainsbury Laboratory</t>
   </si>
   <si>
@@ -516,12 +483,6 @@
     <t>University of Dundee – College of Life Sciences</t>
   </si>
   <si>
-    <t>University of East Anglia – School of Biological Sciences (renewal)</t>
-  </si>
-  <si>
-    <t>University of East Anglia – School of Pharmacy (renewal)</t>
-  </si>
-  <si>
     <t>University of East Anglia – School of Psychology</t>
   </si>
   <si>
@@ -558,18 +519,9 @@
     <t>University of Kent – School of Physical Sciences</t>
   </si>
   <si>
-    <t>University of Leeds – School of Healthcare (renewal)</t>
-  </si>
-  <si>
-    <t>University of Leeds – School of Medicine (renewal)</t>
-  </si>
-  <si>
     <t>University of Leicester – Department of Mathematics</t>
   </si>
   <si>
-    <t>University of Liverpool – Institute of Infection and Global Health(renewal)</t>
-  </si>
-  <si>
     <t>University of Liverpool – School of Electrical Engineering, Electronics and Computer Science</t>
   </si>
   <si>
@@ -585,9 +537,6 @@
     <t>University of Sheffield – Department of Psychology</t>
   </si>
   <si>
-    <t>University of Southampton – Health Sciences (renewal)</t>
-  </si>
-  <si>
     <t>University of Southampton – Mathematical Sciences and Southampton Statistical Sciences Institute</t>
   </si>
   <si>
@@ -618,13 +567,7 @@
     <t>University of the West of England, Bristol – Department of Engineering Design and Mathematics</t>
   </si>
   <si>
-    <t>University of Warwick – School of Life Sciences (renewal)</t>
-  </si>
-  <si>
     <t>Babraham Institute</t>
-  </si>
-  <si>
-    <t>Queen’s University Belfast (renewal)</t>
   </si>
   <si>
     <t>Imperial College London – Department of Medicine</t>
@@ -658,12 +601,6 @@
     <t>Queen Mary, University of London – Barts and The London School of Medicine</t>
   </si>
   <si>
-    <t>Queen’s University Belfast – School of Electronics, Electrical Engineering and Computer Science (renewal)</t>
-  </si>
-  <si>
-    <t>Queen’s University Belfast – School of Mechanical and Aerospace Engineering (renewal)</t>
-  </si>
-  <si>
     <t>University College London – Department of Physics and Astronomy</t>
   </si>
   <si>
@@ -676,9 +613,6 @@
     <t>University of Manchester – School of Psychological Sciences</t>
   </si>
   <si>
-    <t>University of Nottingham – Faculty of Engineering (renewal)</t>
-  </si>
-  <si>
     <t>University of Oxford – Department of Physics</t>
   </si>
   <si>
@@ -1663,21 +1597,12 @@
     <t>Department of Electronics, University of York</t>
   </si>
   <si>
-    <t>School of Physiology and Pharmacology, University of Bristol (R)</t>
-  </si>
-  <si>
     <t>Department of Earth Science and Engineering, Imperial College London</t>
   </si>
   <si>
-    <t>Department of Physics, Imperial College London (R)</t>
-  </si>
-  <si>
     <t>School of Chemical Engineering and Analytical Science, University of Manchester</t>
   </si>
   <si>
-    <t>School of Psychology, University of Nottingham (R)</t>
-  </si>
-  <si>
     <t>Department of Materials, University of Oxford</t>
   </si>
   <si>
@@ -1694,6 +1619,81 @@
   </si>
   <si>
     <t>School of Chemistry, University of Edinburgh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">School of Physiology and Pharmacology, University of Bristol </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Physics, Imperial College London </t>
+  </si>
+  <si>
+    <t xml:space="preserve">School of Psychology, University of Nottingham </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aston University </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangor University </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durham University </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lancaster University </t>
+  </si>
+  <si>
+    <t xml:space="preserve">London School of Hygiene &amp; Tropical Medicine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Birmingham </t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Exeter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Leicester </t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Manchester </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keele University – School of Medicine and Institute for Science and Technology in Medicine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Cambridge – Department of Psychology </t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of East Anglia – School of Biological Sciences </t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of East Anglia – School of Pharmacy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Leeds – School of Healthcare </t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Leeds – School of Medicine </t>
+  </si>
+  <si>
+    <t>University of Liverpool – Institute of Infection and Global Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Southampton – Health Sciences </t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Warwick – School of Life Sciences </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queen’s University Belfast </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queen’s University Belfast – School of Electronics, Electrical Engineering and Computer Science </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queen’s University Belfast – School of Mechanical and Aerospace Engineering </t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Nottingham – Faculty of Engineering </t>
   </si>
 </sst>
 </file>
@@ -2261,8 +2261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="I382" sqref="I382"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2270,7 +2270,7 @@
     <col min="6" max="6" width="141.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18">
+    <row r="1" spans="1:7" ht="18">
       <c r="A1" t="s">
         <v>106</v>
       </c>
@@ -2289,8 +2289,11 @@
       <c r="F1" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18">
+      <c r="G1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -2304,13 +2307,13 @@
         <v>2015</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18">
+    <row r="3" spans="1:7" ht="18">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -2324,13 +2327,13 @@
         <v>2015</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18">
+    <row r="4" spans="1:7" ht="18">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -2344,13 +2347,13 @@
         <v>2015</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18">
+    <row r="5" spans="1:7" ht="18">
       <c r="A5" t="s">
         <v>102</v>
       </c>
@@ -2364,13 +2367,13 @@
         <v>2015</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18">
+    <row r="6" spans="1:7" ht="18">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -2384,13 +2387,13 @@
         <v>2015</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18">
+    <row r="7" spans="1:7" ht="18">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -2404,13 +2407,13 @@
         <v>2015</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18">
+    <row r="8" spans="1:7" ht="18">
       <c r="A8" t="s">
         <v>102</v>
       </c>
@@ -2424,13 +2427,13 @@
         <v>2015</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18">
+    <row r="9" spans="1:7" ht="18">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -2444,13 +2447,13 @@
         <v>2015</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18">
+    <row r="10" spans="1:7" ht="18">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -2464,13 +2467,13 @@
         <v>2015</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18">
+    <row r="11" spans="1:7" ht="18">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -2484,13 +2487,13 @@
         <v>2015</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18">
+    <row r="12" spans="1:7" ht="18">
       <c r="A12" t="s">
         <v>102</v>
       </c>
@@ -2504,13 +2507,13 @@
         <v>2015</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18">
+    <row r="13" spans="1:7" ht="18">
       <c r="A13" t="s">
         <v>102</v>
       </c>
@@ -2524,13 +2527,13 @@
         <v>2015</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18">
+    <row r="14" spans="1:7" ht="18">
       <c r="A14" t="s">
         <v>102</v>
       </c>
@@ -2544,13 +2547,13 @@
         <v>2015</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18">
+    <row r="15" spans="1:7" ht="18">
       <c r="A15" t="s">
         <v>102</v>
       </c>
@@ -2564,13 +2567,13 @@
         <v>2015</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18">
+    <row r="16" spans="1:7" ht="18">
       <c r="A16" t="s">
         <v>102</v>
       </c>
@@ -2584,7 +2587,7 @@
         <v>2015</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>14</v>
@@ -2604,7 +2607,7 @@
         <v>2015</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>15</v>
@@ -2624,7 +2627,7 @@
         <v>2015</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>16</v>
@@ -2644,7 +2647,7 @@
         <v>2015</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>17</v>
@@ -2664,7 +2667,7 @@
         <v>2015</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>18</v>
@@ -2684,7 +2687,7 @@
         <v>2015</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>19</v>
@@ -2704,7 +2707,7 @@
         <v>2015</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>20</v>
@@ -2724,7 +2727,7 @@
         <v>2015</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>21</v>
@@ -2744,7 +2747,7 @@
         <v>2015</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>22</v>
@@ -2764,7 +2767,7 @@
         <v>2015</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>23</v>
@@ -2784,7 +2787,7 @@
         <v>2015</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>24</v>
@@ -2804,7 +2807,7 @@
         <v>2015</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>25</v>
@@ -2824,7 +2827,7 @@
         <v>2015</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>26</v>
@@ -2844,7 +2847,7 @@
         <v>2015</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>27</v>
@@ -2864,7 +2867,7 @@
         <v>2015</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>28</v>
@@ -2884,7 +2887,7 @@
         <v>2015</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>29</v>
@@ -2904,7 +2907,7 @@
         <v>2015</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>30</v>
@@ -2924,7 +2927,7 @@
         <v>2015</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>31</v>
@@ -2944,7 +2947,7 @@
         <v>2015</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>32</v>
@@ -2964,7 +2967,7 @@
         <v>2015</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>33</v>
@@ -2984,7 +2987,7 @@
         <v>2015</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>34</v>
@@ -3004,7 +3007,7 @@
         <v>2015</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>35</v>
@@ -3024,7 +3027,7 @@
         <v>2015</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>36</v>
@@ -3044,7 +3047,7 @@
         <v>2015</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>37</v>
@@ -3064,7 +3067,7 @@
         <v>2015</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>38</v>
@@ -3084,7 +3087,7 @@
         <v>2015</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>39</v>
@@ -3104,7 +3107,7 @@
         <v>2015</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>40</v>
@@ -3124,7 +3127,7 @@
         <v>2015</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>41</v>
@@ -3144,7 +3147,7 @@
         <v>2015</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>42</v>
@@ -3164,7 +3167,7 @@
         <v>2015</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>43</v>
@@ -3184,7 +3187,7 @@
         <v>2015</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>44</v>
@@ -3204,7 +3207,7 @@
         <v>2015</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>45</v>
@@ -3224,7 +3227,7 @@
         <v>2015</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>46</v>
@@ -3244,7 +3247,7 @@
         <v>2015</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>47</v>
@@ -3264,7 +3267,7 @@
         <v>2015</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>48</v>
@@ -3284,7 +3287,7 @@
         <v>2015</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>49</v>
@@ -3304,7 +3307,7 @@
         <v>2015</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>50</v>
@@ -3324,7 +3327,7 @@
         <v>2015</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>51</v>
@@ -3344,7 +3347,7 @@
         <v>2015</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>52</v>
@@ -3364,7 +3367,7 @@
         <v>2015</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>53</v>
@@ -3384,7 +3387,7 @@
         <v>2015</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>54</v>
@@ -3404,7 +3407,7 @@
         <v>2015</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>55</v>
@@ -3424,7 +3427,7 @@
         <v>2015</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>56</v>
@@ -3444,7 +3447,7 @@
         <v>2015</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>57</v>
@@ -3464,7 +3467,7 @@
         <v>2015</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>58</v>
@@ -3484,7 +3487,7 @@
         <v>2015</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>59</v>
@@ -3504,7 +3507,7 @@
         <v>2015</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>60</v>
@@ -3524,7 +3527,7 @@
         <v>2015</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>61</v>
@@ -3544,7 +3547,7 @@
         <v>2015</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>62</v>
@@ -3564,7 +3567,7 @@
         <v>2015</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>63</v>
@@ -3584,7 +3587,7 @@
         <v>2015</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>64</v>
@@ -3604,7 +3607,7 @@
         <v>2015</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>65</v>
@@ -3624,7 +3627,7 @@
         <v>2015</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>66</v>
@@ -3644,7 +3647,7 @@
         <v>2015</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>67</v>
@@ -3664,7 +3667,7 @@
         <v>2015</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>68</v>
@@ -3684,7 +3687,7 @@
         <v>2015</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>69</v>
@@ -3704,7 +3707,7 @@
         <v>2015</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>70</v>
@@ -3724,7 +3727,7 @@
         <v>2015</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>71</v>
@@ -3744,7 +3747,7 @@
         <v>2015</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>72</v>
@@ -3764,7 +3767,7 @@
         <v>2015</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>73</v>
@@ -3784,7 +3787,7 @@
         <v>2015</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>74</v>
@@ -3804,7 +3807,7 @@
         <v>2015</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>75</v>
@@ -3824,7 +3827,7 @@
         <v>2015</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>76</v>
@@ -3844,7 +3847,7 @@
         <v>2015</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>77</v>
@@ -3864,7 +3867,7 @@
         <v>2015</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>78</v>
@@ -3884,7 +3887,7 @@
         <v>2015</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>79</v>
@@ -3904,7 +3907,7 @@
         <v>2015</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>80</v>
@@ -3924,7 +3927,7 @@
         <v>2015</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>81</v>
@@ -3944,7 +3947,7 @@
         <v>2015</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>82</v>
@@ -3964,7 +3967,7 @@
         <v>2015</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>83</v>
@@ -3984,7 +3987,7 @@
         <v>2015</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>84</v>
@@ -4004,7 +4007,7 @@
         <v>2015</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>85</v>
@@ -4024,7 +4027,7 @@
         <v>2015</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>86</v>
@@ -4044,7 +4047,7 @@
         <v>2015</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>87</v>
@@ -4064,7 +4067,7 @@
         <v>2015</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>88</v>
@@ -4084,7 +4087,7 @@
         <v>2015</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>89</v>
@@ -4104,7 +4107,7 @@
         <v>2015</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>90</v>
@@ -4124,7 +4127,7 @@
         <v>2015</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>91</v>
@@ -4144,7 +4147,7 @@
         <v>2015</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>92</v>
@@ -4164,7 +4167,7 @@
         <v>2015</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>93</v>
@@ -4184,7 +4187,7 @@
         <v>2015</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>94</v>
@@ -4204,7 +4207,7 @@
         <v>2015</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>95</v>
@@ -4224,7 +4227,7 @@
         <v>2015</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>96</v>
@@ -4244,7 +4247,7 @@
         <v>2014</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>110</v>
@@ -4264,7 +4267,7 @@
         <v>2014</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>111</v>
@@ -4284,10 +4287,10 @@
         <v>2014</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>112</v>
+        <v>536</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="19">
@@ -4304,10 +4307,10 @@
         <v>2014</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>113</v>
+        <v>537</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="19">
@@ -4324,10 +4327,10 @@
         <v>2014</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>114</v>
+        <v>538</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="19">
@@ -4344,10 +4347,10 @@
         <v>2014</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="19">
@@ -4364,10 +4367,10 @@
         <v>2014</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>116</v>
+        <v>539</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="19">
@@ -4384,10 +4387,10 @@
         <v>2014</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>117</v>
+        <v>540</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="19">
@@ -4404,10 +4407,10 @@
         <v>2014</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="19">
@@ -4424,10 +4427,10 @@
         <v>2014</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="19">
@@ -4444,10 +4447,10 @@
         <v>2014</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>120</v>
+        <v>541</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="19">
@@ -4464,10 +4467,10 @@
         <v>2014</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="19">
@@ -4484,10 +4487,10 @@
         <v>2014</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>122</v>
+        <v>542</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="19">
@@ -4504,10 +4507,10 @@
         <v>2014</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="19">
@@ -4524,10 +4527,10 @@
         <v>2014</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="19">
@@ -4544,10 +4547,10 @@
         <v>2014</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>125</v>
+        <v>543</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="19">
@@ -4564,10 +4567,10 @@
         <v>2014</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>126</v>
+        <v>544</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="19">
@@ -4584,10 +4587,10 @@
         <v>2014</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="19">
@@ -4604,10 +4607,10 @@
         <v>2014</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="19">
@@ -4624,10 +4627,10 @@
         <v>2014</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="19">
@@ -4644,10 +4647,10 @@
         <v>2014</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="19">
@@ -4664,10 +4667,10 @@
         <v>2014</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="19">
@@ -4684,10 +4687,10 @@
         <v>2014</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>132</v>
+        <v>545</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="19">
@@ -4704,10 +4707,10 @@
         <v>2014</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="19">
@@ -4724,10 +4727,10 @@
         <v>2014</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="19">
@@ -4744,10 +4747,10 @@
         <v>2014</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="19">
@@ -4764,10 +4767,10 @@
         <v>2014</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="19">
@@ -4784,10 +4787,10 @@
         <v>2014</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="19">
@@ -4804,10 +4807,10 @@
         <v>2014</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="19">
@@ -4824,10 +4827,10 @@
         <v>2014</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="19">
@@ -4844,10 +4847,10 @@
         <v>2014</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="19">
@@ -4864,10 +4867,10 @@
         <v>2014</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="19">
@@ -4884,10 +4887,10 @@
         <v>2014</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="19">
@@ -4904,10 +4907,10 @@
         <v>2014</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="19">
@@ -4924,10 +4927,10 @@
         <v>2014</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="19">
@@ -4944,10 +4947,10 @@
         <v>2014</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="19">
@@ -4964,10 +4967,10 @@
         <v>2014</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="19">
@@ -4984,10 +4987,10 @@
         <v>2014</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="19">
@@ -5004,10 +5007,10 @@
         <v>2014</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="19">
@@ -5024,10 +5027,10 @@
         <v>2014</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="19">
@@ -5044,10 +5047,10 @@
         <v>2014</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="19">
@@ -5064,10 +5067,10 @@
         <v>2014</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="19">
@@ -5084,10 +5087,10 @@
         <v>2014</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="19">
@@ -5104,10 +5107,10 @@
         <v>2014</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="19">
@@ -5124,10 +5127,10 @@
         <v>2014</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="19">
@@ -5144,10 +5147,10 @@
         <v>2014</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="19">
@@ -5164,10 +5167,10 @@
         <v>2014</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="19">
@@ -5184,10 +5187,10 @@
         <v>2014</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="19">
@@ -5204,10 +5207,10 @@
         <v>2014</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="19">
@@ -5224,10 +5227,10 @@
         <v>2014</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="19">
@@ -5244,10 +5247,10 @@
         <v>2014</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="19">
@@ -5264,10 +5267,10 @@
         <v>2014</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>161</v>
+        <v>546</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="19">
@@ -5284,10 +5287,10 @@
         <v>2014</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="19">
@@ -5304,10 +5307,10 @@
         <v>2014</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="19">
@@ -5324,10 +5327,10 @@
         <v>2014</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="19">
@@ -5344,10 +5347,10 @@
         <v>2014</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>165</v>
+        <v>547</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="19">
@@ -5364,10 +5367,10 @@
         <v>2014</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>166</v>
+        <v>548</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="19">
@@ -5384,10 +5387,10 @@
         <v>2014</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="19">
@@ -5404,10 +5407,10 @@
         <v>2014</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="19">
@@ -5424,10 +5427,10 @@
         <v>2014</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="19">
@@ -5444,10 +5447,10 @@
         <v>2014</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="19">
@@ -5464,10 +5467,10 @@
         <v>2014</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="19">
@@ -5484,10 +5487,10 @@
         <v>2014</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="19">
@@ -5504,10 +5507,10 @@
         <v>2014</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="19">
@@ -5524,10 +5527,10 @@
         <v>2014</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="19">
@@ -5544,10 +5547,10 @@
         <v>2014</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="19">
@@ -5564,10 +5567,10 @@
         <v>2014</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="19">
@@ -5584,10 +5587,10 @@
         <v>2014</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="19">
@@ -5604,10 +5607,10 @@
         <v>2014</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="19">
@@ -5624,10 +5627,10 @@
         <v>2014</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>179</v>
+        <v>549</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="19">
@@ -5644,10 +5647,10 @@
         <v>2014</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>180</v>
+        <v>550</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="19">
@@ -5664,10 +5667,10 @@
         <v>2014</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="19">
@@ -5684,10 +5687,10 @@
         <v>2014</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>182</v>
+        <v>551</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="19">
@@ -5704,10 +5707,10 @@
         <v>2014</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="19">
@@ -5724,10 +5727,10 @@
         <v>2014</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="19">
@@ -5744,10 +5747,10 @@
         <v>2014</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="19">
@@ -5764,10 +5767,10 @@
         <v>2014</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="19">
@@ -5784,10 +5787,10 @@
         <v>2014</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="19">
@@ -5804,10 +5807,10 @@
         <v>2014</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>188</v>
+        <v>552</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="19">
@@ -5824,10 +5827,10 @@
         <v>2014</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="19">
@@ -5844,10 +5847,10 @@
         <v>2014</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="19">
@@ -5864,10 +5867,10 @@
         <v>2014</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="19">
@@ -5884,10 +5887,10 @@
         <v>2014</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="19">
@@ -5904,10 +5907,10 @@
         <v>2014</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="19">
@@ -5924,10 +5927,10 @@
         <v>2014</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="19">
@@ -5944,10 +5947,10 @@
         <v>2014</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="19">
@@ -5964,10 +5967,10 @@
         <v>2014</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="19">
@@ -5984,10 +5987,10 @@
         <v>2014</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="19">
@@ -6004,10 +6007,10 @@
         <v>2014</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="19">
@@ -6024,10 +6027,10 @@
         <v>2014</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>199</v>
+        <v>553</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="19">
@@ -6044,10 +6047,10 @@
         <v>2014</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="19">
@@ -6064,10 +6067,10 @@
         <v>2014</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>201</v>
+        <v>554</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="19">
@@ -6084,10 +6087,10 @@
         <v>2014</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="19">
@@ -6104,10 +6107,10 @@
         <v>2014</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="19">
@@ -6124,10 +6127,10 @@
         <v>2014</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="19">
@@ -6144,10 +6147,10 @@
         <v>2014</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="19">
@@ -6164,10 +6167,10 @@
         <v>2014</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="19">
@@ -6184,10 +6187,10 @@
         <v>2014</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="19">
@@ -6204,10 +6207,10 @@
         <v>2014</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="19">
@@ -6224,10 +6227,10 @@
         <v>2014</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="19">
@@ -6244,10 +6247,10 @@
         <v>2014</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="19">
@@ -6264,10 +6267,10 @@
         <v>2014</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="19">
@@ -6284,10 +6287,10 @@
         <v>2014</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>212</v>
+        <v>555</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="19">
@@ -6304,10 +6307,10 @@
         <v>2014</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>213</v>
+        <v>556</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="19">
@@ -6324,10 +6327,10 @@
         <v>2014</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="19">
@@ -6344,10 +6347,10 @@
         <v>2014</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="19">
@@ -6364,10 +6367,10 @@
         <v>2014</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="19">
@@ -6384,10 +6387,10 @@
         <v>2014</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="19">
@@ -6404,10 +6407,10 @@
         <v>2014</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>218</v>
+        <v>557</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="19">
@@ -6424,10 +6427,10 @@
         <v>2014</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="19">
@@ -6444,10 +6447,10 @@
         <v>2014</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="19">
@@ -6464,10 +6467,10 @@
         <v>2014</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="19">
@@ -6484,10 +6487,10 @@
         <v>2014</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="16">
@@ -6504,10 +6507,10 @@
         <v>2014</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="16">
@@ -6524,10 +6527,10 @@
         <v>2014</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="16">
@@ -6544,10 +6547,10 @@
         <v>2014</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="16">
@@ -6564,10 +6567,10 @@
         <v>2014</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="16">
@@ -6584,10 +6587,10 @@
         <v>2014</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="16">
@@ -6604,10 +6607,10 @@
         <v>2014</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="16">
@@ -6624,10 +6627,10 @@
         <v>2014</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="16">
@@ -6635,7 +6638,7 @@
         <v>103</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>99</v>
@@ -6644,10 +6647,10 @@
         <v>2014</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="16">
@@ -6655,7 +6658,7 @@
         <v>103</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>99</v>
@@ -6664,10 +6667,10 @@
         <v>2014</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="16">
@@ -6675,7 +6678,7 @@
         <v>103</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>99</v>
@@ -6684,10 +6687,10 @@
         <v>2014</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="16">
@@ -6695,7 +6698,7 @@
         <v>103</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>99</v>
@@ -6704,10 +6707,10 @@
         <v>2014</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="16">
@@ -6715,7 +6718,7 @@
         <v>103</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>99</v>
@@ -6724,10 +6727,10 @@
         <v>2014</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="16">
@@ -6744,10 +6747,10 @@
         <v>2014</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="16">
@@ -6764,10 +6767,10 @@
         <v>2014</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="16">
@@ -6784,10 +6787,10 @@
         <v>2014</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="16">
@@ -6804,10 +6807,10 @@
         <v>2014</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="16">
@@ -6824,10 +6827,10 @@
         <v>2014</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="16">
@@ -6844,10 +6847,10 @@
         <v>2014</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="16">
@@ -6864,10 +6867,10 @@
         <v>2014</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="16">
@@ -6884,10 +6887,10 @@
         <v>2014</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="16">
@@ -6904,10 +6907,10 @@
         <v>2014</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="16">
@@ -6924,10 +6927,10 @@
         <v>2014</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="16">
@@ -6944,10 +6947,10 @@
         <v>2014</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="16">
@@ -6964,10 +6967,10 @@
         <v>2014</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="16">
@@ -6984,10 +6987,10 @@
         <v>2014</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="16">
@@ -7004,10 +7007,10 @@
         <v>2014</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="16">
@@ -7024,10 +7027,10 @@
         <v>2014</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="16">
@@ -7044,10 +7047,10 @@
         <v>2014</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="16">
@@ -7064,10 +7067,10 @@
         <v>2014</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="16">
@@ -7084,10 +7087,10 @@
         <v>2014</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="16">
@@ -7104,10 +7107,10 @@
         <v>2014</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="16">
@@ -7124,10 +7127,10 @@
         <v>2014</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="16">
@@ -7144,10 +7147,10 @@
         <v>2014</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="16">
@@ -7164,10 +7167,10 @@
         <v>2014</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="16">
@@ -7184,10 +7187,10 @@
         <v>2014</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="16">
@@ -7204,10 +7207,10 @@
         <v>2014</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="16">
@@ -7224,10 +7227,10 @@
         <v>2014</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="16">
@@ -7244,10 +7247,10 @@
         <v>2014</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="16">
@@ -7264,10 +7267,10 @@
         <v>2014</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="16">
@@ -7284,10 +7287,10 @@
         <v>2014</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="16">
@@ -7304,10 +7307,10 @@
         <v>2014</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="16">
@@ -7324,10 +7327,10 @@
         <v>2014</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="16">
@@ -7344,10 +7347,10 @@
         <v>2014</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="16">
@@ -7364,10 +7367,10 @@
         <v>2014</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="16">
@@ -7384,10 +7387,10 @@
         <v>2014</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="16">
@@ -7404,10 +7407,10 @@
         <v>2014</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="16">
@@ -7424,10 +7427,10 @@
         <v>2014</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="16">
@@ -7444,10 +7447,10 @@
         <v>2014</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="16">
@@ -7464,10 +7467,10 @@
         <v>2014</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="16">
@@ -7484,10 +7487,10 @@
         <v>2014</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="16">
@@ -7504,10 +7507,10 @@
         <v>2014</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="16">
@@ -7524,10 +7527,10 @@
         <v>2014</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="16">
@@ -7544,10 +7547,10 @@
         <v>2014</v>
       </c>
       <c r="E264" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="16">
@@ -7564,10 +7567,10 @@
         <v>2014</v>
       </c>
       <c r="E265" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="16">
@@ -7584,10 +7587,10 @@
         <v>2014</v>
       </c>
       <c r="E266" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="16">
@@ -7604,10 +7607,10 @@
         <v>2014</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="16">
@@ -7624,10 +7627,10 @@
         <v>2014</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="16">
@@ -7644,10 +7647,10 @@
         <v>2014</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="16">
@@ -7664,10 +7667,10 @@
         <v>2014</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="16">
@@ -7684,10 +7687,10 @@
         <v>2014</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="16">
@@ -7695,7 +7698,7 @@
         <v>102</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>99</v>
@@ -7704,10 +7707,10 @@
         <v>2014</v>
       </c>
       <c r="E272" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="16">
@@ -7715,7 +7718,7 @@
         <v>102</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>99</v>
@@ -7724,10 +7727,10 @@
         <v>2014</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="16">
@@ -7735,7 +7738,7 @@
         <v>102</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>99</v>
@@ -7744,10 +7747,10 @@
         <v>2014</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="16">
@@ -7764,10 +7767,10 @@
         <v>2014</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="16">
@@ -7784,10 +7787,10 @@
         <v>2014</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="16">
@@ -7804,10 +7807,10 @@
         <v>2014</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="16">
@@ -7824,10 +7827,10 @@
         <v>2014</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="16">
@@ -7844,10 +7847,10 @@
         <v>2014</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="16">
@@ -7864,10 +7867,10 @@
         <v>2014</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="16">
@@ -7884,10 +7887,10 @@
         <v>2014</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="16">
@@ -7904,10 +7907,10 @@
         <v>2014</v>
       </c>
       <c r="E282" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="16">
@@ -7924,10 +7927,10 @@
         <v>2014</v>
       </c>
       <c r="E283" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="16">
@@ -7944,10 +7947,10 @@
         <v>2014</v>
       </c>
       <c r="E284" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="16">
@@ -7964,10 +7967,10 @@
         <v>2014</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="16">
@@ -7984,10 +7987,10 @@
         <v>2014</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="16">
@@ -8004,10 +8007,10 @@
         <v>2014</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="16">
@@ -8024,10 +8027,10 @@
         <v>2014</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
     </row>
     <row r="289" spans="1:24" ht="16">
@@ -8035,7 +8038,7 @@
         <v>102</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>105</v>
@@ -8044,10 +8047,10 @@
         <v>2014</v>
       </c>
       <c r="E289" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
     </row>
     <row r="290" spans="1:24" ht="16">
@@ -8055,7 +8058,7 @@
         <v>102</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>105</v>
@@ -8064,10 +8067,10 @@
         <v>2014</v>
       </c>
       <c r="E290" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
     </row>
     <row r="291" spans="1:24" ht="16">
@@ -8075,7 +8078,7 @@
         <v>102</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>105</v>
@@ -8084,10 +8087,10 @@
         <v>2014</v>
       </c>
       <c r="E291" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
     </row>
     <row r="292" spans="1:24" ht="16">
@@ -8095,7 +8098,7 @@
         <v>102</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>105</v>
@@ -8104,10 +8107,10 @@
         <v>2014</v>
       </c>
       <c r="E292" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
     </row>
     <row r="293" spans="1:24" ht="16">
@@ -8115,7 +8118,7 @@
         <v>102</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>105</v>
@@ -8124,10 +8127,10 @@
         <v>2014</v>
       </c>
       <c r="E293" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
     </row>
     <row r="294" spans="1:24" ht="16">
@@ -8135,7 +8138,7 @@
         <v>102</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C294" s="4" t="s">
         <v>105</v>
@@ -8144,10 +8147,10 @@
         <v>2014</v>
       </c>
       <c r="E294" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
     </row>
     <row r="295" spans="1:24" ht="16">
@@ -8155,7 +8158,7 @@
         <v>103</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C295" s="4" t="s">
         <v>99</v>
@@ -8164,10 +8167,10 @@
         <v>2013</v>
       </c>
       <c r="E295" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="G295" s="2"/>
       <c r="H295" s="2"/>
@@ -8193,7 +8196,7 @@
         <v>103</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>99</v>
@@ -8202,10 +8205,10 @@
         <v>2013</v>
       </c>
       <c r="E296" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="G296" s="2"/>
       <c r="H296" s="2"/>
@@ -8231,7 +8234,7 @@
         <v>103</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>99</v>
@@ -8240,10 +8243,10 @@
         <v>2013</v>
       </c>
       <c r="E297" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="G297" s="2"/>
       <c r="H297" s="2"/>
@@ -8269,7 +8272,7 @@
         <v>103</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>99</v>
@@ -8278,10 +8281,10 @@
         <v>2013</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="G298" s="2"/>
       <c r="H298" s="2"/>
@@ -8307,7 +8310,7 @@
         <v>103</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>99</v>
@@ -8316,10 +8319,10 @@
         <v>2013</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="G299" s="2"/>
       <c r="H299" s="2"/>
@@ -8345,7 +8348,7 @@
         <v>103</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>99</v>
@@ -8354,10 +8357,10 @@
         <v>2013</v>
       </c>
       <c r="E300" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="G300" s="2"/>
       <c r="H300" s="2"/>
@@ -8383,7 +8386,7 @@
         <v>103</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>99</v>
@@ -8392,10 +8395,10 @@
         <v>2013</v>
       </c>
       <c r="E301" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="G301" s="2"/>
       <c r="H301" s="2"/>
@@ -8421,7 +8424,7 @@
         <v>103</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>99</v>
@@ -8430,10 +8433,10 @@
         <v>2013</v>
       </c>
       <c r="E302" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="G302" s="2"/>
       <c r="H302" s="2"/>
@@ -8459,7 +8462,7 @@
         <v>103</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>99</v>
@@ -8468,10 +8471,10 @@
         <v>2013</v>
       </c>
       <c r="E303" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="G303" s="2"/>
       <c r="H303" s="2"/>
@@ -8497,7 +8500,7 @@
         <v>103</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>99</v>
@@ -8506,10 +8509,10 @@
         <v>2013</v>
       </c>
       <c r="E304" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="G304" s="2"/>
       <c r="H304" s="2"/>
@@ -8535,7 +8538,7 @@
         <v>103</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>99</v>
@@ -8544,10 +8547,10 @@
         <v>2013</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="G305" s="2"/>
       <c r="H305" s="2"/>
@@ -8573,7 +8576,7 @@
         <v>103</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>99</v>
@@ -8582,10 +8585,10 @@
         <v>2013</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="G306" s="2"/>
       <c r="H306" s="2"/>
@@ -8611,7 +8614,7 @@
         <v>103</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>99</v>
@@ -8620,10 +8623,10 @@
         <v>2013</v>
       </c>
       <c r="E307" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="G307" s="2"/>
       <c r="H307" s="2"/>
@@ -8649,7 +8652,7 @@
         <v>103</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>99</v>
@@ -8658,10 +8661,10 @@
         <v>2013</v>
       </c>
       <c r="E308" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="G308" s="2"/>
       <c r="H308" s="2"/>
@@ -8687,7 +8690,7 @@
         <v>103</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>99</v>
@@ -8696,7 +8699,7 @@
         <v>2013</v>
       </c>
       <c r="E309" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>68</v>
@@ -8725,7 +8728,7 @@
         <v>102</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>99</v>
@@ -8734,13 +8737,13 @@
         <v>2013</v>
       </c>
       <c r="E310" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="H310" s="2"/>
       <c r="I310" s="2"/>
@@ -8765,7 +8768,7 @@
         <v>102</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>99</v>
@@ -8774,13 +8777,13 @@
         <v>2013</v>
       </c>
       <c r="E311" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="H311" s="2"/>
       <c r="I311" s="2"/>
@@ -8805,7 +8808,7 @@
         <v>102</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>99</v>
@@ -8814,13 +8817,13 @@
         <v>2013</v>
       </c>
       <c r="E312" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="H312" s="2"/>
       <c r="I312" s="2"/>
@@ -8845,7 +8848,7 @@
         <v>102</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>99</v>
@@ -8854,13 +8857,13 @@
         <v>2013</v>
       </c>
       <c r="E313" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="H313" s="2"/>
       <c r="I313" s="2"/>
@@ -8885,7 +8888,7 @@
         <v>102</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>99</v>
@@ -8894,13 +8897,13 @@
         <v>2013</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="H314" s="2"/>
       <c r="I314" s="2"/>
@@ -8925,7 +8928,7 @@
         <v>102</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>99</v>
@@ -8934,13 +8937,13 @@
         <v>2013</v>
       </c>
       <c r="E315" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="H315" s="2"/>
       <c r="I315" s="2"/>
@@ -8965,7 +8968,7 @@
         <v>102</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>99</v>
@@ -8974,13 +8977,13 @@
         <v>2013</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="H316" s="2"/>
       <c r="I316" s="2"/>
@@ -9005,7 +9008,7 @@
         <v>102</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>99</v>
@@ -9014,13 +9017,13 @@
         <v>2013</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="H317" s="2"/>
       <c r="I317" s="2"/>
@@ -9045,7 +9048,7 @@
         <v>102</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>99</v>
@@ -9054,13 +9057,13 @@
         <v>2013</v>
       </c>
       <c r="E318" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="H318" s="2"/>
       <c r="I318" s="2"/>
@@ -9085,7 +9088,7 @@
         <v>102</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>99</v>
@@ -9094,13 +9097,13 @@
         <v>2013</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="H319" s="2"/>
       <c r="I319" s="2"/>
@@ -9125,7 +9128,7 @@
         <v>102</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>99</v>
@@ -9134,13 +9137,13 @@
         <v>2013</v>
       </c>
       <c r="E320" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="H320" s="2"/>
       <c r="I320" s="2"/>
@@ -9165,7 +9168,7 @@
         <v>102</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>99</v>
@@ -9174,13 +9177,13 @@
         <v>2013</v>
       </c>
       <c r="E321" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="H321" s="2"/>
       <c r="I321" s="2"/>
@@ -9205,7 +9208,7 @@
         <v>102</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>99</v>
@@ -9214,13 +9217,13 @@
         <v>2013</v>
       </c>
       <c r="E322" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="H322" s="2"/>
       <c r="I322" s="2"/>
@@ -9245,7 +9248,7 @@
         <v>102</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>99</v>
@@ -9254,13 +9257,13 @@
         <v>2013</v>
       </c>
       <c r="E323" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="H323" s="2"/>
       <c r="I323" s="2"/>
@@ -9285,7 +9288,7 @@
         <v>102</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>99</v>
@@ -9294,13 +9297,13 @@
         <v>2013</v>
       </c>
       <c r="E324" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="H324" s="2"/>
       <c r="I324" s="2"/>
@@ -9325,7 +9328,7 @@
         <v>102</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>99</v>
@@ -9334,13 +9337,13 @@
         <v>2013</v>
       </c>
       <c r="E325" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="H325" s="2"/>
       <c r="I325" s="2"/>
@@ -9365,7 +9368,7 @@
         <v>102</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>99</v>
@@ -9374,13 +9377,13 @@
         <v>2013</v>
       </c>
       <c r="E326" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="H326" s="2"/>
       <c r="I326" s="2"/>
@@ -9405,7 +9408,7 @@
         <v>102</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>99</v>
@@ -9414,13 +9417,13 @@
         <v>2013</v>
       </c>
       <c r="E327" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="H327" s="2"/>
       <c r="I327" s="2"/>
@@ -9445,7 +9448,7 @@
         <v>102</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>99</v>
@@ -9454,13 +9457,13 @@
         <v>2013</v>
       </c>
       <c r="E328" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="H328" s="2"/>
       <c r="I328" s="2"/>
@@ -9485,7 +9488,7 @@
         <v>102</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>99</v>
@@ -9494,13 +9497,13 @@
         <v>2013</v>
       </c>
       <c r="E329" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="H329" s="2"/>
       <c r="I329" s="2"/>
@@ -9525,7 +9528,7 @@
         <v>102</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>99</v>
@@ -9534,13 +9537,13 @@
         <v>2013</v>
       </c>
       <c r="E330" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="H330" s="2"/>
       <c r="I330" s="2"/>
@@ -9565,7 +9568,7 @@
         <v>102</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>99</v>
@@ -9574,13 +9577,13 @@
         <v>2013</v>
       </c>
       <c r="E331" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="H331" s="2"/>
       <c r="I331" s="2"/>
@@ -9605,7 +9608,7 @@
         <v>102</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>99</v>
@@ -9614,13 +9617,13 @@
         <v>2013</v>
       </c>
       <c r="E332" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="H332" s="2"/>
       <c r="I332" s="2"/>
@@ -9645,7 +9648,7 @@
         <v>102</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>99</v>
@@ -9654,13 +9657,13 @@
         <v>2013</v>
       </c>
       <c r="E333" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F333" s="2" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="H333" s="2"/>
       <c r="I333" s="2"/>
@@ -9685,7 +9688,7 @@
         <v>102</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>99</v>
@@ -9694,13 +9697,13 @@
         <v>2013</v>
       </c>
       <c r="E334" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="H334" s="2"/>
       <c r="I334" s="2"/>
@@ -9725,7 +9728,7 @@
         <v>102</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>99</v>
@@ -9734,13 +9737,13 @@
         <v>2013</v>
       </c>
       <c r="E335" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="H335" s="2"/>
       <c r="I335" s="2"/>
@@ -9765,7 +9768,7 @@
         <v>102</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>99</v>
@@ -9774,13 +9777,13 @@
         <v>2013</v>
       </c>
       <c r="E336" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="H336" s="2"/>
       <c r="I336" s="2"/>
@@ -9805,7 +9808,7 @@
         <v>102</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>99</v>
@@ -9814,13 +9817,13 @@
         <v>2013</v>
       </c>
       <c r="E337" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F337" s="2" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="H337" s="2"/>
       <c r="I337" s="2"/>
@@ -9845,7 +9848,7 @@
         <v>102</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>99</v>
@@ -9854,13 +9857,13 @@
         <v>2013</v>
       </c>
       <c r="E338" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="H338" s="2"/>
       <c r="I338" s="2"/>
@@ -9885,7 +9888,7 @@
         <v>102</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>99</v>
@@ -9894,13 +9897,13 @@
         <v>2013</v>
       </c>
       <c r="E339" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="H339" s="2"/>
       <c r="I339" s="2"/>
@@ -9925,7 +9928,7 @@
         <v>102</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>99</v>
@@ -9934,13 +9937,13 @@
         <v>2013</v>
       </c>
       <c r="E340" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="H340" s="2"/>
       <c r="I340" s="2"/>
@@ -9965,7 +9968,7 @@
         <v>102</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>99</v>
@@ -9974,13 +9977,13 @@
         <v>2013</v>
       </c>
       <c r="E341" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="H341" s="2"/>
       <c r="I341" s="2"/>
@@ -10005,7 +10008,7 @@
         <v>102</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>99</v>
@@ -10014,13 +10017,13 @@
         <v>2013</v>
       </c>
       <c r="E342" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="H342" s="2"/>
       <c r="I342" s="2"/>
@@ -10045,7 +10048,7 @@
         <v>102</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>99</v>
@@ -10054,13 +10057,13 @@
         <v>2013</v>
       </c>
       <c r="E343" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="H343" s="2"/>
       <c r="I343" s="2"/>
@@ -10085,7 +10088,7 @@
         <v>102</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>99</v>
@@ -10094,13 +10097,13 @@
         <v>2013</v>
       </c>
       <c r="E344" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="H344" s="2"/>
       <c r="I344" s="2"/>
@@ -10125,7 +10128,7 @@
         <v>102</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>99</v>
@@ -10134,13 +10137,13 @@
         <v>2013</v>
       </c>
       <c r="E345" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F345" s="2" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="H345" s="2"/>
       <c r="I345" s="2"/>
@@ -10165,7 +10168,7 @@
         <v>102</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>99</v>
@@ -10174,13 +10177,13 @@
         <v>2013</v>
       </c>
       <c r="E346" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="H346" s="2"/>
       <c r="I346" s="2"/>
@@ -10205,7 +10208,7 @@
         <v>102</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>99</v>
@@ -10214,13 +10217,13 @@
         <v>2013</v>
       </c>
       <c r="E347" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="H347" s="2"/>
       <c r="I347" s="2"/>
@@ -10245,7 +10248,7 @@
         <v>102</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>99</v>
@@ -10254,13 +10257,13 @@
         <v>2013</v>
       </c>
       <c r="E348" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F348" s="2" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="H348" s="2"/>
       <c r="I348" s="2"/>
@@ -10285,7 +10288,7 @@
         <v>102</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>99</v>
@@ -10294,13 +10297,13 @@
         <v>2013</v>
       </c>
       <c r="E349" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F349" s="2" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="H349" s="2"/>
       <c r="I349" s="2"/>
@@ -10325,7 +10328,7 @@
         <v>102</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>99</v>
@@ -10334,13 +10337,13 @@
         <v>2013</v>
       </c>
       <c r="E350" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="H350" s="2"/>
       <c r="I350" s="2"/>
@@ -10365,7 +10368,7 @@
         <v>102</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>99</v>
@@ -10374,13 +10377,13 @@
         <v>2013</v>
       </c>
       <c r="E351" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F351" s="2" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="G351" s="2" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="H351" s="2"/>
       <c r="I351" s="2"/>
@@ -10405,7 +10408,7 @@
         <v>102</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>99</v>
@@ -10414,13 +10417,13 @@
         <v>2013</v>
       </c>
       <c r="E352" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F352" s="2" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="G352" s="2" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="H352" s="2"/>
       <c r="I352" s="2"/>
@@ -10445,7 +10448,7 @@
         <v>102</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>99</v>
@@ -10454,13 +10457,13 @@
         <v>2013</v>
       </c>
       <c r="E353" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F353" s="2" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="G353" s="2" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="H353" s="2"/>
       <c r="I353" s="2"/>
@@ -10485,7 +10488,7 @@
         <v>102</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>99</v>
@@ -10494,13 +10497,13 @@
         <v>2013</v>
       </c>
       <c r="E354" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F354" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="H354" s="2"/>
       <c r="I354" s="2"/>
@@ -10525,7 +10528,7 @@
         <v>102</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C355" s="4" t="s">
         <v>99</v>
@@ -10534,13 +10537,13 @@
         <v>2013</v>
       </c>
       <c r="E355" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F355" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="H355" s="2"/>
       <c r="I355" s="2"/>
@@ -10565,7 +10568,7 @@
         <v>102</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>99</v>
@@ -10574,13 +10577,13 @@
         <v>2013</v>
       </c>
       <c r="E356" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F356" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="H356" s="2"/>
       <c r="I356" s="2"/>
@@ -10605,7 +10608,7 @@
         <v>102</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C357" s="4" t="s">
         <v>99</v>
@@ -10614,13 +10617,13 @@
         <v>2013</v>
       </c>
       <c r="E357" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F357" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="H357" s="2"/>
       <c r="I357" s="2"/>
@@ -10645,7 +10648,7 @@
         <v>102</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>99</v>
@@ -10654,13 +10657,13 @@
         <v>2013</v>
       </c>
       <c r="E358" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F358" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="H358" s="2"/>
       <c r="I358" s="2"/>
@@ -10685,7 +10688,7 @@
         <v>102</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>99</v>
@@ -10694,13 +10697,13 @@
         <v>2013</v>
       </c>
       <c r="E359" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F359" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G359" s="2" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="H359" s="2"/>
       <c r="I359" s="2"/>
@@ -10725,7 +10728,7 @@
         <v>102</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>99</v>
@@ -10734,13 +10737,13 @@
         <v>2013</v>
       </c>
       <c r="E360" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F360" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="H360" s="2"/>
       <c r="I360" s="2"/>
@@ -10765,7 +10768,7 @@
         <v>102</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>105</v>
@@ -10774,13 +10777,13 @@
         <v>2013</v>
       </c>
       <c r="E361" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F361" s="2" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="G361" s="2" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="H361" s="2"/>
       <c r="I361" s="5"/>
@@ -10805,7 +10808,7 @@
         <v>102</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>105</v>
@@ -10814,13 +10817,13 @@
         <v>2013</v>
       </c>
       <c r="E362" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F362" s="2" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="H362" s="2"/>
       <c r="I362" s="2"/>
@@ -10845,7 +10848,7 @@
         <v>102</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>105</v>
@@ -10854,13 +10857,13 @@
         <v>2013</v>
       </c>
       <c r="E363" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F363" s="2" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="H363" s="2"/>
       <c r="I363" s="2"/>
@@ -10885,7 +10888,7 @@
         <v>102</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>105</v>
@@ -10894,13 +10897,13 @@
         <v>2013</v>
       </c>
       <c r="E364" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F364" s="2" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="H364" s="2"/>
       <c r="I364" s="2"/>
@@ -10925,7 +10928,7 @@
         <v>102</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C365" s="4" t="s">
         <v>105</v>
@@ -10934,13 +10937,13 @@
         <v>2013</v>
       </c>
       <c r="E365" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F365" s="2" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="H365" s="2"/>
       <c r="I365" s="2"/>
@@ -10965,7 +10968,7 @@
         <v>102</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>105</v>
@@ -10974,13 +10977,13 @@
         <v>2013</v>
       </c>
       <c r="E366" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F366" s="2" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="G366" s="2" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="H366" s="2"/>
       <c r="I366" s="2"/>
@@ -11005,7 +11008,7 @@
         <v>102</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>105</v>
@@ -11014,13 +11017,13 @@
         <v>2013</v>
       </c>
       <c r="E367" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F367" s="2" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="G367" s="2" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="H367" s="2"/>
       <c r="I367" s="2"/>
@@ -11045,7 +11048,7 @@
         <v>102</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>105</v>
@@ -11054,13 +11057,13 @@
         <v>2013</v>
       </c>
       <c r="E368" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F368" s="2" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="H368" s="2"/>
       <c r="I368" s="2"/>
@@ -11085,7 +11088,7 @@
         <v>102</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>105</v>
@@ -11094,13 +11097,13 @@
         <v>2013</v>
       </c>
       <c r="E369" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F369" s="2" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="H369" s="2"/>
       <c r="I369" s="2"/>
@@ -11125,7 +11128,7 @@
         <v>102</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>105</v>
@@ -11134,13 +11137,13 @@
         <v>2013</v>
       </c>
       <c r="E370" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F370" s="2" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="G370" s="2" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="H370" s="2"/>
       <c r="I370" s="2"/>
@@ -11165,7 +11168,7 @@
         <v>102</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>105</v>
@@ -11174,13 +11177,13 @@
         <v>2013</v>
       </c>
       <c r="E371" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F371" s="2" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="G371" s="2" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="H371" s="2"/>
       <c r="I371" s="2"/>
@@ -11205,7 +11208,7 @@
         <v>102</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>105</v>
@@ -11214,13 +11217,13 @@
         <v>2013</v>
       </c>
       <c r="E372" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F372" s="2" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="H372" s="2"/>
       <c r="I372" s="2"/>
@@ -11245,7 +11248,7 @@
         <v>102</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>105</v>
@@ -11254,13 +11257,13 @@
         <v>2013</v>
       </c>
       <c r="E373" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F373" s="2" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="H373" s="2"/>
       <c r="I373" s="2"/>
@@ -11285,7 +11288,7 @@
         <v>102</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>105</v>
@@ -11294,13 +11297,13 @@
         <v>2013</v>
       </c>
       <c r="E374" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F374" s="2" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="G374" s="2" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="H374" s="2"/>
       <c r="I374" s="2"/>
@@ -11325,7 +11328,7 @@
         <v>102</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>105</v>
@@ -11334,13 +11337,13 @@
         <v>2013</v>
       </c>
       <c r="E375" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F375" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="H375" s="2"/>
       <c r="I375" s="2"/>
@@ -11365,7 +11368,7 @@
         <v>102</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>105</v>
@@ -11374,13 +11377,13 @@
         <v>2013</v>
       </c>
       <c r="E376" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F376" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="H376" s="2"/>
       <c r="I376" s="2"/>
@@ -11405,7 +11408,7 @@
         <v>102</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>105</v>
@@ -11414,13 +11417,13 @@
         <v>2013</v>
       </c>
       <c r="E377" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F377" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="H377" s="2"/>
       <c r="I377" s="2"/>
@@ -11445,7 +11448,7 @@
         <v>102</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>105</v>
@@ -11454,13 +11457,13 @@
         <v>2013</v>
       </c>
       <c r="E378" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F378" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="H378" s="2"/>
       <c r="I378" s="2"/>
@@ -11485,7 +11488,7 @@
         <v>102</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>105</v>
@@ -11494,13 +11497,13 @@
         <v>2013</v>
       </c>
       <c r="E379" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F379" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="H379" s="2"/>
       <c r="I379" s="2"/>
@@ -11525,7 +11528,7 @@
         <v>102</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>105</v>
@@ -11534,13 +11537,13 @@
         <v>2013</v>
       </c>
       <c r="E380" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F380" s="2" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="H380" s="2"/>
       <c r="I380" s="2"/>
@@ -11565,7 +11568,7 @@
         <v>102</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>104</v>
@@ -11574,13 +11577,13 @@
         <v>2013</v>
       </c>
       <c r="E381" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F381" s="2" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="G381" s="2" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="H381" s="2"/>
       <c r="I381" s="5"/>
@@ -11605,7 +11608,7 @@
         <v>102</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>104</v>
@@ -11614,13 +11617,13 @@
         <v>2013</v>
       </c>
       <c r="E382" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F382" s="2" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="G382" s="2" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="H382" s="2"/>
       <c r="I382" s="2"/>
@@ -11645,7 +11648,7 @@
         <v>102</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>104</v>
@@ -11654,13 +11657,13 @@
         <v>2013</v>
       </c>
       <c r="E383" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F383" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G383" s="2" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="H383" s="2"/>
       <c r="I383" s="2"/>
@@ -11685,7 +11688,7 @@
         <v>103</v>
       </c>
       <c r="B384" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>99</v>
@@ -11694,10 +11697,10 @@
         <v>2013</v>
       </c>
       <c r="E384" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F384" s="6" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
     </row>
     <row r="385" spans="1:7" ht="18">
@@ -11705,7 +11708,7 @@
         <v>103</v>
       </c>
       <c r="B385" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>99</v>
@@ -11714,10 +11717,10 @@
         <v>2013</v>
       </c>
       <c r="E385" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F385" s="6" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
     </row>
     <row r="386" spans="1:7" ht="16">
@@ -11725,7 +11728,7 @@
         <v>103</v>
       </c>
       <c r="B386" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>99</v>
@@ -11734,10 +11737,10 @@
         <v>2013</v>
       </c>
       <c r="E386" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F386" s="2" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
     </row>
     <row r="387" spans="1:7" ht="16">
@@ -11745,7 +11748,7 @@
         <v>103</v>
       </c>
       <c r="B387" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>99</v>
@@ -11754,10 +11757,10 @@
         <v>2013</v>
       </c>
       <c r="E387" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F387" s="2" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
     </row>
     <row r="388" spans="1:7" ht="16">
@@ -11765,7 +11768,7 @@
         <v>103</v>
       </c>
       <c r="B388" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>99</v>
@@ -11774,10 +11777,10 @@
         <v>2013</v>
       </c>
       <c r="E388" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F388" s="2" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
     </row>
     <row r="389" spans="1:7" ht="18">
@@ -11785,7 +11788,7 @@
         <v>103</v>
       </c>
       <c r="B389" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>99</v>
@@ -11794,10 +11797,10 @@
         <v>2013</v>
       </c>
       <c r="E389" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F389" s="6" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
     </row>
     <row r="390" spans="1:7" ht="16">
@@ -11805,7 +11808,7 @@
         <v>103</v>
       </c>
       <c r="B390" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>99</v>
@@ -11814,10 +11817,10 @@
         <v>2013</v>
       </c>
       <c r="E390" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F390" s="2" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
     </row>
     <row r="391" spans="1:7" ht="16">
@@ -11825,7 +11828,7 @@
         <v>103</v>
       </c>
       <c r="B391" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>105</v>
@@ -11834,10 +11837,10 @@
         <v>2013</v>
       </c>
       <c r="E391" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F391" s="2" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
     </row>
     <row r="392" spans="1:7" ht="16">
@@ -11845,7 +11848,7 @@
         <v>103</v>
       </c>
       <c r="B392" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>99</v>
@@ -11854,10 +11857,10 @@
         <v>2013</v>
       </c>
       <c r="E392" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F392" s="2" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
     </row>
     <row r="393" spans="1:7" ht="18">
@@ -11865,7 +11868,7 @@
         <v>103</v>
       </c>
       <c r="B393" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>99</v>
@@ -11874,10 +11877,10 @@
         <v>2013</v>
       </c>
       <c r="E393" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F393" s="6" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
     </row>
     <row r="394" spans="1:7" ht="16">
@@ -11885,7 +11888,7 @@
         <v>102</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>99</v>
@@ -11894,13 +11897,13 @@
         <v>2013</v>
       </c>
       <c r="E394" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F394" s="2" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="G394" s="2" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
     </row>
     <row r="395" spans="1:7" ht="16">
@@ -11908,7 +11911,7 @@
         <v>102</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>99</v>
@@ -11917,13 +11920,13 @@
         <v>2013</v>
       </c>
       <c r="E395" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F395" s="2" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
     </row>
     <row r="396" spans="1:7" ht="16">
@@ -11931,7 +11934,7 @@
         <v>102</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>99</v>
@@ -11940,13 +11943,13 @@
         <v>2013</v>
       </c>
       <c r="E396" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F396" s="2" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
     </row>
     <row r="397" spans="1:7" ht="16">
@@ -11954,7 +11957,7 @@
         <v>102</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>99</v>
@@ -11963,13 +11966,13 @@
         <v>2013</v>
       </c>
       <c r="E397" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F397" s="2" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="G397" s="2" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
     </row>
     <row r="398" spans="1:7" ht="16">
@@ -11977,7 +11980,7 @@
         <v>102</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>99</v>
@@ -11986,13 +11989,13 @@
         <v>2013</v>
       </c>
       <c r="E398" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F398" s="2" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="G398" s="2" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
     </row>
     <row r="399" spans="1:7" ht="16">
@@ -12000,7 +12003,7 @@
         <v>102</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>99</v>
@@ -12009,13 +12012,13 @@
         <v>2013</v>
       </c>
       <c r="E399" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F399" s="2" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
     </row>
     <row r="400" spans="1:7" ht="16">
@@ -12023,7 +12026,7 @@
         <v>102</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>99</v>
@@ -12032,13 +12035,13 @@
         <v>2013</v>
       </c>
       <c r="E400" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F400" s="2" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
     </row>
     <row r="401" spans="1:7" ht="16">
@@ -12046,7 +12049,7 @@
         <v>102</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>99</v>
@@ -12055,13 +12058,13 @@
         <v>2013</v>
       </c>
       <c r="E401" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F401" s="2" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
     </row>
     <row r="402" spans="1:7" ht="16">
@@ -12069,7 +12072,7 @@
         <v>102</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>99</v>
@@ -12078,13 +12081,13 @@
         <v>2013</v>
       </c>
       <c r="E402" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F402" s="2" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
     </row>
     <row r="403" spans="1:7" ht="16">
@@ -12092,7 +12095,7 @@
         <v>102</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>99</v>
@@ -12101,13 +12104,13 @@
         <v>2013</v>
       </c>
       <c r="E403" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F403" s="2" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
     </row>
     <row r="404" spans="1:7" ht="16">
@@ -12115,7 +12118,7 @@
         <v>102</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>99</v>
@@ -12124,13 +12127,13 @@
         <v>2013</v>
       </c>
       <c r="E404" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F404" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G404" s="7" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
     </row>
     <row r="405" spans="1:7" ht="16">
@@ -12138,7 +12141,7 @@
         <v>102</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>99</v>
@@ -12147,13 +12150,13 @@
         <v>2013</v>
       </c>
       <c r="E405" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F405" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G405" s="7" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
     </row>
     <row r="406" spans="1:7" ht="16">
@@ -12161,7 +12164,7 @@
         <v>102</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>99</v>
@@ -12170,13 +12173,13 @@
         <v>2013</v>
       </c>
       <c r="E406" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F406" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G406" s="2" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
     </row>
     <row r="407" spans="1:7" ht="16">
@@ -12184,7 +12187,7 @@
         <v>102</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>99</v>
@@ -12193,13 +12196,13 @@
         <v>2013</v>
       </c>
       <c r="E407" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F407" s="2" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="G407" s="7" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
     </row>
     <row r="408" spans="1:7" ht="16">
@@ -12207,7 +12210,7 @@
         <v>102</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>99</v>
@@ -12216,13 +12219,13 @@
         <v>2013</v>
       </c>
       <c r="E408" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F408" s="2" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="G408" s="7" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
     </row>
     <row r="409" spans="1:7" ht="16">
@@ -12230,7 +12233,7 @@
         <v>102</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>99</v>
@@ -12239,13 +12242,13 @@
         <v>2013</v>
       </c>
       <c r="E409" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F409" s="2" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="G409" s="7" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
     </row>
     <row r="410" spans="1:7" ht="16">
@@ -12253,7 +12256,7 @@
         <v>102</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>99</v>
@@ -12262,13 +12265,13 @@
         <v>2013</v>
       </c>
       <c r="E410" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F410" s="2" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="G410" s="2" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
     </row>
     <row r="411" spans="1:7" ht="16">
@@ -12276,7 +12279,7 @@
         <v>102</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>99</v>
@@ -12285,13 +12288,13 @@
         <v>2013</v>
       </c>
       <c r="E411" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F411" s="7" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
     </row>
     <row r="412" spans="1:7" ht="16">
@@ -12299,7 +12302,7 @@
         <v>102</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>99</v>
@@ -12308,13 +12311,13 @@
         <v>2013</v>
       </c>
       <c r="E412" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F412" s="2" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
     </row>
     <row r="413" spans="1:7" ht="16">
@@ -12322,7 +12325,7 @@
         <v>102</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>99</v>
@@ -12331,13 +12334,13 @@
         <v>2013</v>
       </c>
       <c r="E413" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F413" s="2" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
     </row>
     <row r="414" spans="1:7" ht="16">
@@ -12345,7 +12348,7 @@
         <v>102</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>99</v>
@@ -12354,13 +12357,13 @@
         <v>2013</v>
       </c>
       <c r="E414" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F414" s="2" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="G414" s="7" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
     </row>
     <row r="415" spans="1:7" ht="16">
@@ -12368,7 +12371,7 @@
         <v>102</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>99</v>
@@ -12377,13 +12380,13 @@
         <v>2013</v>
       </c>
       <c r="E415" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F415" s="2" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="G415" s="7" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
     </row>
     <row r="416" spans="1:7" ht="16">
@@ -12391,7 +12394,7 @@
         <v>102</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>99</v>
@@ -12400,13 +12403,13 @@
         <v>2013</v>
       </c>
       <c r="E416" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F416" s="2" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="G416" s="7" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
     </row>
     <row r="417" spans="1:7" ht="16">
@@ -12414,7 +12417,7 @@
         <v>102</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>99</v>
@@ -12423,13 +12426,13 @@
         <v>2013</v>
       </c>
       <c r="E417" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F417" s="2" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="G417" s="7" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
     </row>
     <row r="418" spans="1:7" ht="16">
@@ -12437,7 +12440,7 @@
         <v>102</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>99</v>
@@ -12446,13 +12449,13 @@
         <v>2013</v>
       </c>
       <c r="E418" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F418" s="2" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="G418" s="7" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
     </row>
     <row r="419" spans="1:7" ht="16">
@@ -12460,7 +12463,7 @@
         <v>102</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>99</v>
@@ -12469,13 +12472,13 @@
         <v>2013</v>
       </c>
       <c r="E419" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F419" s="2" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="G419" s="7" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
     </row>
     <row r="420" spans="1:7" ht="16">
@@ -12483,7 +12486,7 @@
         <v>102</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>99</v>
@@ -12492,13 +12495,13 @@
         <v>2013</v>
       </c>
       <c r="E420" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F420" s="2" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="G420" s="7" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
     </row>
     <row r="421" spans="1:7" ht="16">
@@ -12506,7 +12509,7 @@
         <v>102</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>99</v>
@@ -12515,13 +12518,13 @@
         <v>2013</v>
       </c>
       <c r="E421" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F421" s="2" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="G421" s="7" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
     </row>
     <row r="422" spans="1:7" ht="16">
@@ -12529,7 +12532,7 @@
         <v>102</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>99</v>
@@ -12538,13 +12541,13 @@
         <v>2013</v>
       </c>
       <c r="E422" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F422" s="2" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="G422" s="7" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
     </row>
     <row r="423" spans="1:7" ht="16">
@@ -12552,7 +12555,7 @@
         <v>102</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>99</v>
@@ -12561,13 +12564,13 @@
         <v>2013</v>
       </c>
       <c r="E423" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F423" s="2" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="G423" s="7" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
     </row>
     <row r="424" spans="1:7" ht="16">
@@ -12575,7 +12578,7 @@
         <v>102</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>99</v>
@@ -12584,13 +12587,13 @@
         <v>2013</v>
       </c>
       <c r="E424" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F424" s="2" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="G424" s="7" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
     </row>
     <row r="425" spans="1:7" ht="16">
@@ -12598,7 +12601,7 @@
         <v>102</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>99</v>
@@ -12607,13 +12610,13 @@
         <v>2013</v>
       </c>
       <c r="E425" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F425" s="2" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="G425" s="7" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
     </row>
     <row r="426" spans="1:7" ht="16">
@@ -12621,7 +12624,7 @@
         <v>102</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>99</v>
@@ -12630,13 +12633,13 @@
         <v>2013</v>
       </c>
       <c r="E426" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F426" s="2" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="G426" s="7" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
     </row>
     <row r="427" spans="1:7" ht="16">
@@ -12644,7 +12647,7 @@
         <v>102</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>99</v>
@@ -12653,13 +12656,13 @@
         <v>2013</v>
       </c>
       <c r="E427" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F427" s="2" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="G427" s="7" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
     </row>
     <row r="428" spans="1:7" ht="16">
@@ -12667,7 +12670,7 @@
         <v>102</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>99</v>
@@ -12676,13 +12679,13 @@
         <v>2013</v>
       </c>
       <c r="E428" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F428" s="2" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="G428" s="7" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
     </row>
     <row r="429" spans="1:7" ht="16">
@@ -12690,7 +12693,7 @@
         <v>102</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>99</v>
@@ -12699,13 +12702,13 @@
         <v>2013</v>
       </c>
       <c r="E429" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F429" s="2" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="G429" s="7" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
     </row>
     <row r="430" spans="1:7" ht="16">
@@ -12713,7 +12716,7 @@
         <v>102</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>99</v>
@@ -12722,13 +12725,13 @@
         <v>2013</v>
       </c>
       <c r="E430" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F430" s="2" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="G430" s="7" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
     </row>
     <row r="431" spans="1:7" ht="16">
@@ -12736,7 +12739,7 @@
         <v>102</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>99</v>
@@ -12745,13 +12748,13 @@
         <v>2013</v>
       </c>
       <c r="E431" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F431" s="2" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="G431" s="7" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
     </row>
     <row r="432" spans="1:7" ht="16">
@@ -12759,7 +12762,7 @@
         <v>102</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>99</v>
@@ -12768,13 +12771,13 @@
         <v>2013</v>
       </c>
       <c r="E432" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F432" s="2" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="G432" s="7" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
     </row>
     <row r="433" spans="1:7" ht="16">
@@ -12782,7 +12785,7 @@
         <v>102</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>99</v>
@@ -12791,13 +12794,13 @@
         <v>2013</v>
       </c>
       <c r="E433" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F433" s="2" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="G433" s="7" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
     </row>
     <row r="434" spans="1:7" ht="16">
@@ -12805,7 +12808,7 @@
         <v>102</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>99</v>
@@ -12814,13 +12817,13 @@
         <v>2013</v>
       </c>
       <c r="E434" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F434" s="2" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="G434" s="7" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
     </row>
     <row r="435" spans="1:7" ht="16">
@@ -12828,7 +12831,7 @@
         <v>102</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>99</v>
@@ -12837,13 +12840,13 @@
         <v>2013</v>
       </c>
       <c r="E435" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F435" s="2" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="G435" s="7" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
     </row>
     <row r="436" spans="1:7" ht="16">
@@ -12851,7 +12854,7 @@
         <v>102</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>99</v>
@@ -12860,13 +12863,13 @@
         <v>2013</v>
       </c>
       <c r="E436" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F436" s="2" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="G436" s="7" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
     </row>
     <row r="437" spans="1:7" ht="16">
@@ -12874,7 +12877,7 @@
         <v>102</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>99</v>
@@ -12883,13 +12886,13 @@
         <v>2013</v>
       </c>
       <c r="E437" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F437" s="2" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="G437" s="7" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
     </row>
     <row r="438" spans="1:7" ht="16">
@@ -12897,7 +12900,7 @@
         <v>102</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>99</v>
@@ -12906,13 +12909,13 @@
         <v>2013</v>
       </c>
       <c r="E438" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F438" s="2" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="G438" s="7" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
     </row>
     <row r="439" spans="1:7" ht="16">
@@ -12920,7 +12923,7 @@
         <v>102</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>99</v>
@@ -12929,13 +12932,13 @@
         <v>2013</v>
       </c>
       <c r="E439" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F439" s="2" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="G439" s="7" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
     </row>
     <row r="440" spans="1:7" ht="16">
@@ -12943,7 +12946,7 @@
         <v>102</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>99</v>
@@ -12952,13 +12955,13 @@
         <v>2013</v>
       </c>
       <c r="E440" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F440" s="2" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="G440" s="7" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
     </row>
     <row r="441" spans="1:7" ht="16">
@@ -12966,7 +12969,7 @@
         <v>102</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>99</v>
@@ -12975,13 +12978,13 @@
         <v>2013</v>
       </c>
       <c r="E441" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F441" s="2" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="G441" s="7" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="442" spans="1:7" ht="16">
@@ -12989,7 +12992,7 @@
         <v>102</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>99</v>
@@ -12998,13 +13001,13 @@
         <v>2013</v>
       </c>
       <c r="E442" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F442" s="2" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="G442" s="7" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
     </row>
     <row r="443" spans="1:7" ht="16">
@@ -13012,7 +13015,7 @@
         <v>102</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>99</v>
@@ -13021,13 +13024,13 @@
         <v>2013</v>
       </c>
       <c r="E443" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F443" s="2" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="G443" s="2" t="s">
-        <v>458</v>
+        <v>436</v>
       </c>
     </row>
     <row r="444" spans="1:7" ht="16">
@@ -13035,7 +13038,7 @@
         <v>102</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>99</v>
@@ -13044,13 +13047,13 @@
         <v>2013</v>
       </c>
       <c r="E444" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F444" s="2" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="G444" s="2" t="s">
-        <v>459</v>
+        <v>437</v>
       </c>
     </row>
     <row r="445" spans="1:7" ht="16">
@@ -13058,7 +13061,7 @@
         <v>102</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>99</v>
@@ -13067,13 +13070,13 @@
         <v>2013</v>
       </c>
       <c r="E445" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F445" s="2" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="G445" s="2" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
     </row>
     <row r="446" spans="1:7" ht="16">
@@ -13081,7 +13084,7 @@
         <v>102</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>99</v>
@@ -13090,13 +13093,13 @@
         <v>2013</v>
       </c>
       <c r="E446" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F446" s="2" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="G446" s="7" t="s">
-        <v>461</v>
+        <v>439</v>
       </c>
     </row>
     <row r="447" spans="1:7" ht="16">
@@ -13104,7 +13107,7 @@
         <v>102</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>99</v>
@@ -13113,13 +13116,13 @@
         <v>2013</v>
       </c>
       <c r="E447" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F447" s="2" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="G447" s="7" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
     </row>
     <row r="448" spans="1:7" ht="16">
@@ -13127,7 +13130,7 @@
         <v>102</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>99</v>
@@ -13136,13 +13139,13 @@
         <v>2013</v>
       </c>
       <c r="E448" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F448" s="7" t="s">
         <v>95</v>
       </c>
       <c r="G448" s="2" t="s">
-        <v>463</v>
+        <v>441</v>
       </c>
     </row>
     <row r="449" spans="1:7" ht="16">
@@ -13150,7 +13153,7 @@
         <v>102</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>99</v>
@@ -13159,13 +13162,13 @@
         <v>2013</v>
       </c>
       <c r="E449" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F449" s="2" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="G449" s="7" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
     </row>
     <row r="450" spans="1:7" ht="16">
@@ -13173,7 +13176,7 @@
         <v>102</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>99</v>
@@ -13182,13 +13185,13 @@
         <v>2013</v>
       </c>
       <c r="E450" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F450" s="2" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="G450" s="7" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
     </row>
     <row r="451" spans="1:7" ht="16">
@@ -13196,7 +13199,7 @@
         <v>102</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>99</v>
@@ -13205,13 +13208,13 @@
         <v>2013</v>
       </c>
       <c r="E451" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F451" s="2" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="G451" s="7" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
     </row>
     <row r="452" spans="1:7" ht="16">
@@ -13219,7 +13222,7 @@
         <v>102</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>99</v>
@@ -13228,13 +13231,13 @@
         <v>2013</v>
       </c>
       <c r="E452" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F452" s="2" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="G452" s="7" t="s">
-        <v>466</v>
+        <v>444</v>
       </c>
     </row>
     <row r="453" spans="1:7" ht="16">
@@ -13242,7 +13245,7 @@
         <v>102</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>99</v>
@@ -13251,13 +13254,13 @@
         <v>2013</v>
       </c>
       <c r="E453" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F453" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G453" s="7" t="s">
-        <v>467</v>
+        <v>445</v>
       </c>
     </row>
     <row r="454" spans="1:7" ht="16">
@@ -13265,7 +13268,7 @@
         <v>102</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>105</v>
@@ -13274,13 +13277,13 @@
         <v>2013</v>
       </c>
       <c r="E454" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F454" s="2" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="G454" s="7" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
     </row>
     <row r="455" spans="1:7" ht="16">
@@ -13288,7 +13291,7 @@
         <v>102</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>105</v>
@@ -13297,13 +13300,13 @@
         <v>2013</v>
       </c>
       <c r="E455" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F455" s="2" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="G455" s="7" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
     </row>
     <row r="456" spans="1:7" ht="16">
@@ -13311,7 +13314,7 @@
         <v>102</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>105</v>
@@ -13320,13 +13323,13 @@
         <v>2013</v>
       </c>
       <c r="E456" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F456" s="2" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="G456" s="2" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
     </row>
     <row r="457" spans="1:7" ht="16">
@@ -13334,7 +13337,7 @@
         <v>102</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>105</v>
@@ -13343,13 +13346,13 @@
         <v>2013</v>
       </c>
       <c r="E457" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F457" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G457" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="F457" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="G457" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="458" spans="1:7" ht="16">
@@ -13357,7 +13360,7 @@
         <v>102</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>105</v>
@@ -13366,13 +13369,13 @@
         <v>2013</v>
       </c>
       <c r="E458" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F458" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G458" s="7" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
     </row>
     <row r="459" spans="1:7" ht="16">
@@ -13380,7 +13383,7 @@
         <v>102</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>105</v>
@@ -13389,13 +13392,13 @@
         <v>2013</v>
       </c>
       <c r="E459" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F459" s="2" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="G459" s="7" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
     </row>
     <row r="460" spans="1:7" ht="16">
@@ -13403,7 +13406,7 @@
         <v>102</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>105</v>
@@ -13412,13 +13415,13 @@
         <v>2013</v>
       </c>
       <c r="E460" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F460" s="2" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="G460" s="7" t="s">
-        <v>467</v>
+        <v>445</v>
       </c>
     </row>
     <row r="461" spans="1:7" ht="16">
@@ -13426,7 +13429,7 @@
         <v>102</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>105</v>
@@ -13435,13 +13438,13 @@
         <v>2013</v>
       </c>
       <c r="E461" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F461" s="2" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="G461" s="7" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
     </row>
     <row r="462" spans="1:7" ht="16">
@@ -13449,7 +13452,7 @@
         <v>102</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>105</v>
@@ -13458,13 +13461,13 @@
         <v>2013</v>
       </c>
       <c r="E462" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F462" s="7" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="G462" s="7" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
     </row>
     <row r="463" spans="1:7" ht="16">
@@ -13472,7 +13475,7 @@
         <v>102</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>105</v>
@@ -13481,13 +13484,13 @@
         <v>2013</v>
       </c>
       <c r="E463" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F463" s="2" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="G463" s="7" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
     </row>
     <row r="464" spans="1:7" ht="16">
@@ -13495,7 +13498,7 @@
         <v>102</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>105</v>
@@ -13504,13 +13507,13 @@
         <v>2013</v>
       </c>
       <c r="E464" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F464" s="7" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="G464" s="7" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
     </row>
     <row r="465" spans="1:25" ht="16">
@@ -13518,7 +13521,7 @@
         <v>102</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>105</v>
@@ -13527,13 +13530,13 @@
         <v>2013</v>
       </c>
       <c r="E465" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F465" s="7" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="G465" s="7" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
     </row>
     <row r="466" spans="1:25" ht="16">
@@ -13541,7 +13544,7 @@
         <v>102</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>105</v>
@@ -13550,13 +13553,13 @@
         <v>2013</v>
       </c>
       <c r="E466" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F466" s="7" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="G466" s="7" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
     </row>
     <row r="467" spans="1:25" ht="16">
@@ -13564,7 +13567,7 @@
         <v>102</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>105</v>
@@ -13573,13 +13576,13 @@
         <v>2013</v>
       </c>
       <c r="E467" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F467" s="2" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="G467" s="7" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
     </row>
     <row r="468" spans="1:25" ht="16">
@@ -13587,7 +13590,7 @@
         <v>102</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>105</v>
@@ -13596,13 +13599,13 @@
         <v>2013</v>
       </c>
       <c r="E468" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F468" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G468" s="2" t="s">
-        <v>478</v>
+        <v>456</v>
       </c>
     </row>
     <row r="469" spans="1:25" ht="16">
@@ -13610,7 +13613,7 @@
         <v>102</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>105</v>
@@ -13619,13 +13622,13 @@
         <v>2013</v>
       </c>
       <c r="E469" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F469" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G469" s="2" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
     </row>
     <row r="470" spans="1:25" ht="16">
@@ -13633,7 +13636,7 @@
         <v>102</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>105</v>
@@ -13642,13 +13645,13 @@
         <v>2013</v>
       </c>
       <c r="E470" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F470" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G470" s="2" t="s">
-        <v>480</v>
+        <v>458</v>
       </c>
     </row>
     <row r="471" spans="1:25" ht="16">
@@ -13656,7 +13659,7 @@
         <v>102</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>105</v>
@@ -13665,13 +13668,13 @@
         <v>2013</v>
       </c>
       <c r="E471" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F471" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G471" s="2" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
     </row>
     <row r="472" spans="1:25" ht="16">
@@ -13679,7 +13682,7 @@
         <v>102</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>105</v>
@@ -13688,13 +13691,13 @@
         <v>2013</v>
       </c>
       <c r="E472" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F472" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G472" s="7" t="s">
-        <v>482</v>
+        <v>460</v>
       </c>
     </row>
     <row r="473" spans="1:25" ht="16">
@@ -13702,7 +13705,7 @@
         <v>102</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>104</v>
@@ -13711,13 +13714,13 @@
         <v>2013</v>
       </c>
       <c r="E473" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F473" s="2" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="G473" s="2" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
     </row>
     <row r="474" spans="1:25" ht="16">
@@ -13734,10 +13737,10 @@
         <v>2012</v>
       </c>
       <c r="E474" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F474" s="2" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="G474" s="2"/>
       <c r="H474" s="2"/>
@@ -13773,10 +13776,10 @@
         <v>2012</v>
       </c>
       <c r="E475" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F475" s="2" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="G475" s="2"/>
       <c r="H475" s="2"/>
@@ -13812,10 +13815,10 @@
         <v>2012</v>
       </c>
       <c r="E476" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F476" s="2" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="G476" s="2"/>
       <c r="H476" s="2"/>
@@ -13851,10 +13854,10 @@
         <v>2012</v>
       </c>
       <c r="E477" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F477" s="2" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="G477" s="2"/>
       <c r="H477" s="2"/>
@@ -13890,10 +13893,10 @@
         <v>2012</v>
       </c>
       <c r="E478" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F478" s="2" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="G478" s="2"/>
       <c r="H478" s="2"/>
@@ -13929,10 +13932,10 @@
         <v>2012</v>
       </c>
       <c r="E479" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F479" s="2" t="s">
-        <v>486</v>
+        <v>464</v>
       </c>
       <c r="G479" s="2"/>
       <c r="H479" s="2"/>
@@ -13968,10 +13971,10 @@
         <v>2012</v>
       </c>
       <c r="E480" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F480" s="2" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="G480" s="2"/>
       <c r="H480" s="2"/>
@@ -14007,10 +14010,10 @@
         <v>2012</v>
       </c>
       <c r="E481" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F481" s="2" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
       <c r="G481" s="2"/>
       <c r="H481" s="2"/>
@@ -14046,10 +14049,10 @@
         <v>2012</v>
       </c>
       <c r="E482" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F482" s="2" t="s">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="G482" s="2"/>
       <c r="H482" s="2"/>
@@ -14076,7 +14079,7 @@
         <v>103</v>
       </c>
       <c r="B483" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>99</v>
@@ -14085,10 +14088,10 @@
         <v>2012</v>
       </c>
       <c r="E483" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F483" s="2" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="G483" s="2"/>
       <c r="H483" s="2"/>
@@ -14115,7 +14118,7 @@
         <v>103</v>
       </c>
       <c r="B484" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>99</v>
@@ -14124,7 +14127,7 @@
         <v>2012</v>
       </c>
       <c r="E484" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F484" s="2" t="s">
         <v>96</v>
@@ -14154,7 +14157,7 @@
         <v>103</v>
       </c>
       <c r="B485" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>99</v>
@@ -14163,10 +14166,10 @@
         <v>2012</v>
       </c>
       <c r="E485" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F485" s="2" t="s">
-        <v>489</v>
+        <v>467</v>
       </c>
       <c r="G485" s="2"/>
       <c r="H485" s="2"/>
@@ -14193,7 +14196,7 @@
         <v>103</v>
       </c>
       <c r="B486" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>99</v>
@@ -14202,10 +14205,10 @@
         <v>2012</v>
       </c>
       <c r="E486" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F486" s="2" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="G486" s="2"/>
       <c r="H486" s="2"/>
@@ -14232,7 +14235,7 @@
         <v>103</v>
       </c>
       <c r="B487" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>99</v>
@@ -14241,10 +14244,10 @@
         <v>2012</v>
       </c>
       <c r="E487" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F487" s="2" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="G487" s="2"/>
       <c r="H487" s="2"/>
@@ -14271,7 +14274,7 @@
         <v>103</v>
       </c>
       <c r="B488" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C488" s="2" t="s">
         <v>99</v>
@@ -14280,10 +14283,10 @@
         <v>2012</v>
       </c>
       <c r="E488" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F488" s="2" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="G488" s="2"/>
       <c r="H488" s="2"/>
@@ -14310,7 +14313,7 @@
         <v>103</v>
       </c>
       <c r="B489" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C489" s="2" t="s">
         <v>99</v>
@@ -14319,10 +14322,10 @@
         <v>2012</v>
       </c>
       <c r="E489" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F489" s="2" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="G489" s="2"/>
       <c r="H489" s="2"/>
@@ -14349,7 +14352,7 @@
         <v>103</v>
       </c>
       <c r="B490" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C490" s="2" t="s">
         <v>99</v>
@@ -14358,10 +14361,10 @@
         <v>2012</v>
       </c>
       <c r="E490" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F490" s="2" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="G490" s="2"/>
       <c r="H490" s="2"/>
@@ -14388,7 +14391,7 @@
         <v>103</v>
       </c>
       <c r="B491" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C491" s="2" t="s">
         <v>99</v>
@@ -14397,7 +14400,7 @@
         <v>2012</v>
       </c>
       <c r="E491" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F491" s="2" t="s">
         <v>95</v>
@@ -14436,10 +14439,10 @@
         <v>2012</v>
       </c>
       <c r="E492" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F492" s="2" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="G492" s="2"/>
       <c r="H492" s="2"/>
@@ -14475,10 +14478,10 @@
         <v>2012</v>
       </c>
       <c r="E493" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F493" s="2" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="G493" s="2"/>
       <c r="H493" s="2"/>
@@ -14514,10 +14517,10 @@
         <v>2012</v>
       </c>
       <c r="E494" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F494" s="2" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="G494" s="2"/>
       <c r="H494" s="2"/>
@@ -14553,10 +14556,10 @@
         <v>2012</v>
       </c>
       <c r="E495" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F495" s="2" t="s">
-        <v>491</v>
+        <v>469</v>
       </c>
       <c r="G495" s="2"/>
       <c r="H495" s="2"/>
@@ -14592,10 +14595,10 @@
         <v>2012</v>
       </c>
       <c r="E496" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F496" s="2" t="s">
-        <v>492</v>
+        <v>470</v>
       </c>
       <c r="G496" s="2"/>
       <c r="H496" s="2"/>
@@ -14631,10 +14634,10 @@
         <v>2012</v>
       </c>
       <c r="E497" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F497" s="2" t="s">
-        <v>493</v>
+        <v>471</v>
       </c>
       <c r="G497" s="2"/>
       <c r="H497" s="2"/>
@@ -14670,10 +14673,10 @@
         <v>2012</v>
       </c>
       <c r="E498" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F498" s="2" t="s">
-        <v>494</v>
+        <v>472</v>
       </c>
       <c r="G498" s="2"/>
       <c r="H498" s="2"/>
@@ -14709,10 +14712,10 @@
         <v>2012</v>
       </c>
       <c r="E499" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F499" s="2" t="s">
-        <v>495</v>
+        <v>473</v>
       </c>
       <c r="G499" s="2"/>
       <c r="H499" s="2"/>
@@ -14748,10 +14751,10 @@
         <v>2012</v>
       </c>
       <c r="E500" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F500" s="2" t="s">
-        <v>496</v>
+        <v>474</v>
       </c>
       <c r="G500" s="2"/>
       <c r="H500" s="2"/>
@@ -14787,10 +14790,10 @@
         <v>2012</v>
       </c>
       <c r="E501" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F501" s="2" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="G501" s="2"/>
       <c r="H501" s="2"/>
@@ -14826,10 +14829,10 @@
         <v>2012</v>
       </c>
       <c r="E502" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F502" s="2" t="s">
-        <v>498</v>
+        <v>476</v>
       </c>
       <c r="G502" s="2"/>
       <c r="H502" s="2"/>
@@ -14865,10 +14868,10 @@
         <v>2012</v>
       </c>
       <c r="E503" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F503" s="2" t="s">
-        <v>499</v>
+        <v>477</v>
       </c>
       <c r="G503" s="2"/>
       <c r="H503" s="2"/>
@@ -14904,10 +14907,10 @@
         <v>2012</v>
       </c>
       <c r="E504" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F504" s="2" t="s">
-        <v>500</v>
+        <v>478</v>
       </c>
       <c r="G504" s="2"/>
       <c r="H504" s="2"/>
@@ -14943,10 +14946,10 @@
         <v>2012</v>
       </c>
       <c r="E505" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F505" s="2" t="s">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="G505" s="2"/>
       <c r="H505" s="2"/>
@@ -14982,10 +14985,10 @@
         <v>2012</v>
       </c>
       <c r="E506" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F506" s="2" t="s">
-        <v>502</v>
+        <v>480</v>
       </c>
       <c r="G506" s="2"/>
       <c r="H506" s="2"/>
@@ -15021,10 +15024,10 @@
         <v>2012</v>
       </c>
       <c r="E507" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F507" s="2" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
       <c r="G507" s="2"/>
       <c r="H507" s="2"/>
@@ -15060,10 +15063,10 @@
         <v>2012</v>
       </c>
       <c r="E508" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F508" s="2" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="G508" s="2"/>
       <c r="H508" s="2"/>
@@ -15099,10 +15102,10 @@
         <v>2012</v>
       </c>
       <c r="E509" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F509" s="2" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="G509" s="2"/>
       <c r="H509" s="2"/>
@@ -15138,7 +15141,7 @@
         <v>2012</v>
       </c>
       <c r="E510" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F510" s="2" t="s">
         <v>78</v>
@@ -15177,10 +15180,10 @@
         <v>2012</v>
       </c>
       <c r="E511" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F511" s="2" t="s">
-        <v>506</v>
+        <v>484</v>
       </c>
       <c r="G511" s="2"/>
       <c r="H511" s="2"/>
@@ -15216,10 +15219,10 @@
         <v>2012</v>
       </c>
       <c r="E512" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F512" s="2" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="G512" s="2"/>
       <c r="H512" s="2"/>
@@ -15255,10 +15258,10 @@
         <v>2012</v>
       </c>
       <c r="E513" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F513" s="2" t="s">
-        <v>508</v>
+        <v>486</v>
       </c>
       <c r="G513" s="2"/>
       <c r="H513" s="2"/>
@@ -15294,7 +15297,7 @@
         <v>2012</v>
       </c>
       <c r="E514" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F514" s="2" t="s">
         <v>80</v>
@@ -15333,10 +15336,10 @@
         <v>2012</v>
       </c>
       <c r="E515" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F515" s="2" t="s">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="G515" s="2"/>
       <c r="H515" s="2"/>
@@ -15372,7 +15375,7 @@
         <v>2012</v>
       </c>
       <c r="E516" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F516" s="2" t="s">
         <v>53</v>
@@ -15411,10 +15414,10 @@
         <v>2012</v>
       </c>
       <c r="E517" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F517" s="2" t="s">
-        <v>510</v>
+        <v>488</v>
       </c>
       <c r="G517" s="2"/>
       <c r="H517" s="2"/>
@@ -15450,10 +15453,10 @@
         <v>2012</v>
       </c>
       <c r="E518" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F518" s="2" t="s">
-        <v>511</v>
+        <v>489</v>
       </c>
       <c r="G518" s="2"/>
       <c r="H518" s="2"/>
@@ -15489,10 +15492,10 @@
         <v>2012</v>
       </c>
       <c r="E519" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F519" s="2" t="s">
-        <v>512</v>
+        <v>490</v>
       </c>
       <c r="G519" s="2"/>
       <c r="H519" s="2"/>
@@ -15528,10 +15531,10 @@
         <v>2012</v>
       </c>
       <c r="E520" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F520" s="2" t="s">
-        <v>513</v>
+        <v>491</v>
       </c>
       <c r="G520" s="2"/>
       <c r="H520" s="2"/>
@@ -15567,10 +15570,10 @@
         <v>2012</v>
       </c>
       <c r="E521" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F521" s="2" t="s">
-        <v>514</v>
+        <v>492</v>
       </c>
       <c r="G521" s="2"/>
       <c r="H521" s="2"/>
@@ -15606,10 +15609,10 @@
         <v>2012</v>
       </c>
       <c r="E522" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F522" s="2" t="s">
-        <v>515</v>
+        <v>493</v>
       </c>
       <c r="G522" s="2"/>
       <c r="H522" s="2"/>
@@ -15645,7 +15648,7 @@
         <v>2012</v>
       </c>
       <c r="E523" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F523" s="2" t="s">
         <v>88</v>
@@ -15684,10 +15687,10 @@
         <v>2012</v>
       </c>
       <c r="E524" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F524" s="2" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="G524" s="2"/>
       <c r="H524" s="2"/>
@@ -15723,10 +15726,10 @@
         <v>2012</v>
       </c>
       <c r="E525" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F525" s="2" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="G525" s="2"/>
       <c r="H525" s="2"/>
@@ -15762,10 +15765,10 @@
         <v>2012</v>
       </c>
       <c r="E526" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F526" s="2" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="G526" s="2"/>
       <c r="H526" s="2"/>
@@ -15801,10 +15804,10 @@
         <v>2012</v>
       </c>
       <c r="E527" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F527" s="2" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="G527" s="2"/>
       <c r="H527" s="2"/>
@@ -15840,10 +15843,10 @@
         <v>2012</v>
       </c>
       <c r="E528" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F528" s="2" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
       <c r="G528" s="2"/>
       <c r="H528" s="2"/>
@@ -15879,10 +15882,10 @@
         <v>2012</v>
       </c>
       <c r="E529" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F529" s="2" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="G529" s="2"/>
       <c r="H529" s="2"/>
@@ -15918,10 +15921,10 @@
         <v>2012</v>
       </c>
       <c r="E530" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F530" s="2" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="G530" s="2"/>
       <c r="H530" s="2"/>
@@ -15957,10 +15960,10 @@
         <v>2012</v>
       </c>
       <c r="E531" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F531" s="2" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="G531" s="2"/>
       <c r="H531" s="2"/>
@@ -15996,10 +15999,10 @@
         <v>2012</v>
       </c>
       <c r="E532" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F532" s="2" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="G532" s="2"/>
       <c r="H532" s="2"/>
@@ -16035,10 +16038,10 @@
         <v>2012</v>
       </c>
       <c r="E533" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F533" s="2" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="G533" s="2"/>
       <c r="H533" s="2"/>
@@ -16074,10 +16077,10 @@
         <v>2012</v>
       </c>
       <c r="E534" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F534" s="2" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="G534" s="2"/>
       <c r="H534" s="2"/>
@@ -16113,10 +16116,10 @@
         <v>2012</v>
       </c>
       <c r="E535" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F535" s="2" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
       <c r="G535" s="2"/>
       <c r="H535" s="2"/>
@@ -16152,10 +16155,10 @@
         <v>2012</v>
       </c>
       <c r="E536" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F536" s="2" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="G536" s="2"/>
       <c r="H536" s="2"/>
@@ -16191,10 +16194,10 @@
         <v>2012</v>
       </c>
       <c r="E537" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F537" s="2" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="G537" s="2"/>
       <c r="H537" s="2"/>
@@ -16221,7 +16224,7 @@
         <v>102</v>
       </c>
       <c r="B538" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C538" s="2" t="s">
         <v>105</v>
@@ -16230,10 +16233,10 @@
         <v>2012</v>
       </c>
       <c r="E538" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F538" s="2" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="G538" s="2"/>
       <c r="H538" s="2"/>
@@ -16260,7 +16263,7 @@
         <v>102</v>
       </c>
       <c r="B539" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C539" s="2" t="s">
         <v>105</v>
@@ -16269,10 +16272,10 @@
         <v>2012</v>
       </c>
       <c r="E539" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F539" s="2" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
       <c r="G539" s="2"/>
       <c r="H539" s="2"/>
@@ -16299,7 +16302,7 @@
         <v>102</v>
       </c>
       <c r="B540" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C540" s="2" t="s">
         <v>105</v>
@@ -16308,10 +16311,10 @@
         <v>2012</v>
       </c>
       <c r="E540" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F540" s="2" t="s">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="G540" s="2"/>
       <c r="H540" s="2"/>
@@ -16347,10 +16350,10 @@
         <v>2012</v>
       </c>
       <c r="E541" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F541" s="2" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="G541" s="2"/>
       <c r="H541" s="2"/>
@@ -16386,10 +16389,10 @@
         <v>2012</v>
       </c>
       <c r="E542" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F542" s="2" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="G542" s="2"/>
       <c r="H542" s="2"/>
@@ -16425,10 +16428,10 @@
         <v>2012</v>
       </c>
       <c r="E543" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F543" s="2" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="G543" s="2"/>
       <c r="H543" s="2"/>
@@ -16464,10 +16467,10 @@
         <v>2012</v>
       </c>
       <c r="E544" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F544" s="2" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="G544" s="2"/>
       <c r="H544" s="2"/>
@@ -16503,10 +16506,10 @@
         <v>2012</v>
       </c>
       <c r="E545" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F545" s="2" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="G545" s="2"/>
       <c r="H545" s="2"/>
@@ -16542,10 +16545,10 @@
         <v>2012</v>
       </c>
       <c r="E546" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F546" s="2" t="s">
-        <v>537</v>
+        <v>515</v>
       </c>
       <c r="G546" s="2"/>
       <c r="H546" s="2"/>
@@ -16581,10 +16584,10 @@
         <v>2012</v>
       </c>
       <c r="E547" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F547" s="2" t="s">
-        <v>538</v>
+        <v>516</v>
       </c>
       <c r="G547" s="2"/>
       <c r="H547" s="2"/>
@@ -16620,10 +16623,10 @@
         <v>2012</v>
       </c>
       <c r="E548" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F548" s="2" t="s">
-        <v>539</v>
+        <v>517</v>
       </c>
       <c r="G548" s="2"/>
       <c r="H548" s="2"/>
@@ -16659,10 +16662,10 @@
         <v>2012</v>
       </c>
       <c r="E549" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F549" s="2" t="s">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="G549" s="2"/>
       <c r="H549" s="2"/>
@@ -16698,10 +16701,10 @@
         <v>2012</v>
       </c>
       <c r="E550" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F550" s="2" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="G550" s="2"/>
       <c r="H550" s="2"/>
@@ -16737,10 +16740,10 @@
         <v>2012</v>
       </c>
       <c r="E551" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F551" s="2" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
       <c r="G551" s="2"/>
       <c r="H551" s="2"/>
@@ -16776,10 +16779,10 @@
         <v>2012</v>
       </c>
       <c r="E552" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F552" s="2" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="G552" s="2"/>
       <c r="H552" s="2"/>
@@ -16815,10 +16818,10 @@
         <v>2012</v>
       </c>
       <c r="E553" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F553" s="2" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="G553" s="2"/>
       <c r="H553" s="2"/>
@@ -16854,10 +16857,10 @@
         <v>2012</v>
       </c>
       <c r="E554" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F554" s="2" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="G554" s="2"/>
       <c r="H554" s="2"/>
@@ -16893,10 +16896,10 @@
         <v>2012</v>
       </c>
       <c r="E555" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F555" s="2" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="G555" s="2"/>
       <c r="H555" s="2"/>
@@ -16923,7 +16926,7 @@
         <v>102</v>
       </c>
       <c r="B556" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C556" s="2" t="s">
         <v>105</v>
@@ -16932,10 +16935,10 @@
         <v>2012</v>
       </c>
       <c r="E556" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F556" s="2" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="G556" s="2"/>
       <c r="H556" s="2"/>
@@ -16971,10 +16974,10 @@
         <v>2012</v>
       </c>
       <c r="E557" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F557" s="2" t="s">
-        <v>548</v>
+        <v>525</v>
       </c>
       <c r="G557" s="2"/>
       <c r="H557" s="2"/>
@@ -17001,7 +17004,7 @@
         <v>102</v>
       </c>
       <c r="B558" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C558" s="2" t="s">
         <v>105</v>
@@ -17010,10 +17013,10 @@
         <v>2012</v>
       </c>
       <c r="E558" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F558" s="2" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="G558" s="2"/>
       <c r="H558" s="2"/>
@@ -17049,10 +17052,10 @@
         <v>2012</v>
       </c>
       <c r="E559" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F559" s="2" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="G559" s="2"/>
       <c r="H559" s="2"/>
@@ -17079,7 +17082,7 @@
         <v>102</v>
       </c>
       <c r="B560" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C560" s="2" t="s">
         <v>105</v>
@@ -17088,10 +17091,10 @@
         <v>2012</v>
       </c>
       <c r="E560" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F560" s="2" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="G560" s="2"/>
       <c r="H560" s="2"/>
@@ -17127,10 +17130,10 @@
         <v>2012</v>
       </c>
       <c r="E561" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F561" s="2" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="G561" s="2"/>
       <c r="H561" s="2"/>
@@ -17166,10 +17169,10 @@
         <v>2012</v>
       </c>
       <c r="E562" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F562" s="2" t="s">
-        <v>553</v>
+        <v>528</v>
       </c>
       <c r="G562" s="2"/>
       <c r="H562" s="2"/>
@@ -17205,10 +17208,10 @@
         <v>2012</v>
       </c>
       <c r="E563" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F563" s="2" t="s">
-        <v>554</v>
+        <v>529</v>
       </c>
       <c r="G563" s="2"/>
       <c r="H563" s="2"/>
@@ -17244,10 +17247,10 @@
         <v>2012</v>
       </c>
       <c r="E564" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F564" s="2" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="G564" s="2"/>
       <c r="H564" s="2"/>
@@ -17283,10 +17286,10 @@
         <v>2012</v>
       </c>
       <c r="E565" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F565" s="2" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="G565" s="2"/>
       <c r="H565" s="2"/>
@@ -17322,10 +17325,10 @@
         <v>2012</v>
       </c>
       <c r="E566" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F566" s="2" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="G566" s="2"/>
       <c r="H566" s="2"/>

--- a/ASAwards/AthenaSWANAwardList2012_201520160316.xlsx
+++ b/ASAwards/AthenaSWANAwardList2012_201520160316.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1640" windowWidth="25040" windowHeight="14420"/>
+    <workbookView xWindow="360" yWindow="0" windowWidth="25040" windowHeight="14420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -558,9 +558,6 @@
     <t>Keele University, School of Physical &amp; Geographical Sciences</t>
   </si>
   <si>
-    <t>Kings College London, Centre of Human &amp; Aerospace Physiological Sciences (CHAPS)</t>
-  </si>
-  <si>
     <t>Newcastle University, School of Biomedical Sciences</t>
   </si>
   <si>
@@ -729,9 +726,6 @@
     <t>University of York, Department of Chemistry</t>
   </si>
   <si>
-    <t>King's College London, Division of Immunology, Infection and Inflammatory Diseases</t>
-  </si>
-  <si>
     <t>University College London, UCL Institute of Cardiovascular Science</t>
   </si>
   <si>
@@ -766,9 +760,6 @@
   </si>
   <si>
     <t>Imperial College London, Department of Physics</t>
-  </si>
-  <si>
-    <t>Queen's University Belfast, School of Geography, Archaeology and Palaeoecology</t>
   </si>
   <si>
     <t>Royal Holloway, Department of Physics</t>
@@ -1177,18 +1168,6 @@
     <t>Imperial College London – Institute of Clinical Sciences and MRC Clinical Sciences Centre</t>
   </si>
   <si>
-    <t>King's College London – Division of Palliative Care, Policy and Rehabilitation</t>
-  </si>
-  <si>
-    <t>King's College London – Division of Asthma, Allergy and Lung Biology</t>
-  </si>
-  <si>
-    <t>King's College London – Division of Imaging Sciences and Biomedical Engineering</t>
-  </si>
-  <si>
-    <t>King's College London – Faculty of Natural and Mathematical Sciences</t>
-  </si>
-  <si>
     <t>London School of Hygiene and Tropical Medicine – Faculty of Infectious and Tropical Diseases</t>
   </si>
   <si>
@@ -1321,15 +1300,6 @@
     <t>University of Cambridge</t>
   </si>
   <si>
-    <t>King's College London – Cardiovascular Division</t>
-  </si>
-  <si>
-    <t>King's College London – Division of Women’s Health</t>
-  </si>
-  <si>
-    <t>Queen's University Belfast – School of Pharmacy</t>
-  </si>
-  <si>
     <t>University College London – UCL Cancer Institute</t>
   </si>
   <si>
@@ -1432,9 +1402,6 @@
     <t>Heriot-Watt University</t>
   </si>
   <si>
-    <t>Kings College London</t>
-  </si>
-  <si>
     <t>Sheffield Hallam University</t>
   </si>
   <si>
@@ -1703,16 +1670,65 @@
   </si>
   <si>
     <t>School of Chemistry, University of Edinburgh</t>
+  </si>
+  <si>
+    <t>Queen’s University Belfast, School of Geography, Archaeology and Palaeoecology</t>
+  </si>
+  <si>
+    <t>Queen’s University Belfast – School of Pharmacy</t>
+  </si>
+  <si>
+    <t>King’s College London – Division of Asthma, Allergy and Lung Biology</t>
+  </si>
+  <si>
+    <t>King’s College London – Division of Imaging Sciences and Biomedical Engineering</t>
+  </si>
+  <si>
+    <t>King’s College London – Division of Palliative Care, Policy and Rehabilitation</t>
+  </si>
+  <si>
+    <t>King’s College London – Faculty of Natural and Mathematical Sciences</t>
+  </si>
+  <si>
+    <t>King’s College London, Centre of Human &amp; Aerospace Physiological Sciences (CHAPS)</t>
+  </si>
+  <si>
+    <t>King’s College London, Division of Immunology, Infection and Inflammatory Diseases</t>
+  </si>
+  <si>
+    <t>King’s College London – Cardiovascular Division</t>
+  </si>
+  <si>
+    <t>King’s College London – Division of Women’s Health</t>
+  </si>
+  <si>
+    <t>King’s College London</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1735,13 +1751,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2073,8 +2093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F566"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A509" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F182" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="F188" sqref="F188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2299,7 +2319,7 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>179</v>
+        <v>556</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2319,7 +2339,7 @@
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2339,7 +2359,7 @@
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2359,7 +2379,7 @@
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2379,7 +2399,7 @@
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2399,7 +2419,7 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2419,7 +2439,7 @@
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2439,7 +2459,7 @@
         <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2459,7 +2479,7 @@
         <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2479,7 +2499,7 @@
         <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2499,7 +2519,7 @@
         <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2519,7 +2539,7 @@
         <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2539,7 +2559,7 @@
         <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2559,7 +2579,7 @@
         <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2579,7 +2599,7 @@
         <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2599,7 +2619,7 @@
         <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2619,7 +2639,7 @@
         <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2639,7 +2659,7 @@
         <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2659,7 +2679,7 @@
         <v>15</v>
       </c>
       <c r="F29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2679,7 +2699,7 @@
         <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2699,7 +2719,7 @@
         <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2719,7 +2739,7 @@
         <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2739,7 +2759,7 @@
         <v>15</v>
       </c>
       <c r="F33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2759,7 +2779,7 @@
         <v>15</v>
       </c>
       <c r="F34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2779,7 +2799,7 @@
         <v>15</v>
       </c>
       <c r="F35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2799,7 +2819,7 @@
         <v>15</v>
       </c>
       <c r="F36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2819,7 +2839,7 @@
         <v>15</v>
       </c>
       <c r="F37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2839,7 +2859,7 @@
         <v>15</v>
       </c>
       <c r="F38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2859,7 +2879,7 @@
         <v>15</v>
       </c>
       <c r="F39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2879,7 +2899,7 @@
         <v>15</v>
       </c>
       <c r="F40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2899,7 +2919,7 @@
         <v>15</v>
       </c>
       <c r="F41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2919,7 +2939,7 @@
         <v>15</v>
       </c>
       <c r="F42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2939,7 +2959,7 @@
         <v>15</v>
       </c>
       <c r="F43" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2959,7 +2979,7 @@
         <v>15</v>
       </c>
       <c r="F44" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2979,7 +2999,7 @@
         <v>15</v>
       </c>
       <c r="F45" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2999,7 +3019,7 @@
         <v>15</v>
       </c>
       <c r="F46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3019,7 +3039,7 @@
         <v>15</v>
       </c>
       <c r="F47" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3039,7 +3059,7 @@
         <v>15</v>
       </c>
       <c r="F48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3059,7 +3079,7 @@
         <v>15</v>
       </c>
       <c r="F49" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3079,7 +3099,7 @@
         <v>15</v>
       </c>
       <c r="F50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3099,7 +3119,7 @@
         <v>15</v>
       </c>
       <c r="F51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3119,7 +3139,7 @@
         <v>15</v>
       </c>
       <c r="F52" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3139,7 +3159,7 @@
         <v>15</v>
       </c>
       <c r="F53" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3159,7 +3179,7 @@
         <v>15</v>
       </c>
       <c r="F54" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3179,7 +3199,7 @@
         <v>15</v>
       </c>
       <c r="F55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3219,7 +3239,7 @@
         <v>15</v>
       </c>
       <c r="F57" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3299,7 +3319,7 @@
         <v>15</v>
       </c>
       <c r="F61" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3319,7 +3339,7 @@
         <v>15</v>
       </c>
       <c r="F62" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3339,7 +3359,7 @@
         <v>15</v>
       </c>
       <c r="F63" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3359,7 +3379,7 @@
         <v>15</v>
       </c>
       <c r="F64" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3379,7 +3399,7 @@
         <v>15</v>
       </c>
       <c r="F65" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3399,7 +3419,7 @@
         <v>15</v>
       </c>
       <c r="F66" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3419,7 +3439,7 @@
         <v>15</v>
       </c>
       <c r="F67" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3439,7 +3459,7 @@
         <v>15</v>
       </c>
       <c r="F68" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3459,7 +3479,7 @@
         <v>15</v>
       </c>
       <c r="F69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3479,12 +3499,12 @@
         <v>15</v>
       </c>
       <c r="F70" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
@@ -3499,7 +3519,7 @@
         <v>15</v>
       </c>
       <c r="F71" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3519,7 +3539,7 @@
         <v>15</v>
       </c>
       <c r="F72" t="s">
-        <v>236</v>
+        <v>557</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3579,7 +3599,7 @@
         <v>15</v>
       </c>
       <c r="F75" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3619,7 +3639,7 @@
         <v>15</v>
       </c>
       <c r="F77" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3639,7 +3659,7 @@
         <v>15</v>
       </c>
       <c r="F78" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3679,7 +3699,7 @@
         <v>15</v>
       </c>
       <c r="F80" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3699,7 +3719,7 @@
         <v>15</v>
       </c>
       <c r="F81" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3719,7 +3739,7 @@
         <v>15</v>
       </c>
       <c r="F82" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3759,7 +3779,7 @@
         <v>15</v>
       </c>
       <c r="F84" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3779,7 +3799,7 @@
         <v>15</v>
       </c>
       <c r="F85" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3839,7 +3859,7 @@
         <v>15</v>
       </c>
       <c r="F88" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3859,7 +3879,7 @@
         <v>15</v>
       </c>
       <c r="F89" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3879,7 +3899,7 @@
         <v>15</v>
       </c>
       <c r="F90" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3899,7 +3919,7 @@
         <v>15</v>
       </c>
       <c r="F91" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3919,7 +3939,7 @@
         <v>15</v>
       </c>
       <c r="F92" t="s">
-        <v>249</v>
+        <v>550</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3939,7 +3959,7 @@
         <v>15</v>
       </c>
       <c r="F93" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3959,7 +3979,7 @@
         <v>15</v>
       </c>
       <c r="F94" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3979,7 +3999,7 @@
         <v>15</v>
       </c>
       <c r="F95" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3999,7 +4019,7 @@
         <v>15</v>
       </c>
       <c r="F96" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -4019,7 +4039,7 @@
         <v>15</v>
       </c>
       <c r="F97" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -4039,7 +4059,7 @@
         <v>15</v>
       </c>
       <c r="F98" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -4059,7 +4079,7 @@
         <v>16</v>
       </c>
       <c r="F99" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -4079,7 +4099,7 @@
         <v>16</v>
       </c>
       <c r="F100" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -4099,7 +4119,7 @@
         <v>16</v>
       </c>
       <c r="F101" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -4119,7 +4139,7 @@
         <v>16</v>
       </c>
       <c r="F102" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -4139,7 +4159,7 @@
         <v>16</v>
       </c>
       <c r="F103" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4159,7 +4179,7 @@
         <v>16</v>
       </c>
       <c r="F104" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4179,7 +4199,7 @@
         <v>16</v>
       </c>
       <c r="F105" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -4199,7 +4219,7 @@
         <v>16</v>
       </c>
       <c r="F106" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -4219,7 +4239,7 @@
         <v>16</v>
       </c>
       <c r="F107" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -4239,7 +4259,7 @@
         <v>16</v>
       </c>
       <c r="F108" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -4259,7 +4279,7 @@
         <v>16</v>
       </c>
       <c r="F109" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -4279,7 +4299,7 @@
         <v>16</v>
       </c>
       <c r="F110" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4299,7 +4319,7 @@
         <v>16</v>
       </c>
       <c r="F111" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -4319,7 +4339,7 @@
         <v>16</v>
       </c>
       <c r="F112" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4339,7 +4359,7 @@
         <v>16</v>
       </c>
       <c r="F113" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4359,7 +4379,7 @@
         <v>16</v>
       </c>
       <c r="F114" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4379,7 +4399,7 @@
         <v>16</v>
       </c>
       <c r="F115" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4399,7 +4419,7 @@
         <v>16</v>
       </c>
       <c r="F116" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4419,7 +4439,7 @@
         <v>16</v>
       </c>
       <c r="F117" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4439,7 +4459,7 @@
         <v>16</v>
       </c>
       <c r="F118" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4459,7 +4479,7 @@
         <v>16</v>
       </c>
       <c r="F119" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4479,7 +4499,7 @@
         <v>16</v>
       </c>
       <c r="F120" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4499,7 +4519,7 @@
         <v>16</v>
       </c>
       <c r="F121" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4519,7 +4539,7 @@
         <v>16</v>
       </c>
       <c r="F122" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4539,7 +4559,7 @@
         <v>16</v>
       </c>
       <c r="F123" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4559,7 +4579,7 @@
         <v>16</v>
       </c>
       <c r="F124" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4579,7 +4599,7 @@
         <v>16</v>
       </c>
       <c r="F125" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4599,7 +4619,7 @@
         <v>16</v>
       </c>
       <c r="F126" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4619,7 +4639,7 @@
         <v>16</v>
       </c>
       <c r="F127" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4639,7 +4659,7 @@
         <v>16</v>
       </c>
       <c r="F128" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4659,7 +4679,7 @@
         <v>16</v>
       </c>
       <c r="F129" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4679,7 +4699,7 @@
         <v>16</v>
       </c>
       <c r="F130" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4699,7 +4719,7 @@
         <v>16</v>
       </c>
       <c r="F131" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4719,7 +4739,7 @@
         <v>16</v>
       </c>
       <c r="F132" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4739,7 +4759,7 @@
         <v>16</v>
       </c>
       <c r="F133" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4759,7 +4779,7 @@
         <v>16</v>
       </c>
       <c r="F134" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4779,7 +4799,7 @@
         <v>16</v>
       </c>
       <c r="F135" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4799,7 +4819,7 @@
         <v>16</v>
       </c>
       <c r="F136" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4819,7 +4839,7 @@
         <v>16</v>
       </c>
       <c r="F137" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4839,7 +4859,7 @@
         <v>16</v>
       </c>
       <c r="F138" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4859,7 +4879,7 @@
         <v>16</v>
       </c>
       <c r="F139" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4879,7 +4899,7 @@
         <v>16</v>
       </c>
       <c r="F140" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4899,7 +4919,7 @@
         <v>16</v>
       </c>
       <c r="F141" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4919,7 +4939,7 @@
         <v>16</v>
       </c>
       <c r="F142" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4939,7 +4959,7 @@
         <v>16</v>
       </c>
       <c r="F143" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4959,7 +4979,7 @@
         <v>16</v>
       </c>
       <c r="F144" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4979,7 +4999,7 @@
         <v>16</v>
       </c>
       <c r="F145" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4999,7 +5019,7 @@
         <v>16</v>
       </c>
       <c r="F146" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -5019,7 +5039,7 @@
         <v>16</v>
       </c>
       <c r="F147" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -5039,7 +5059,7 @@
         <v>16</v>
       </c>
       <c r="F148" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -5059,7 +5079,7 @@
         <v>16</v>
       </c>
       <c r="F149" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -5079,7 +5099,7 @@
         <v>16</v>
       </c>
       <c r="F150" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -5099,7 +5119,7 @@
         <v>16</v>
       </c>
       <c r="F151" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -5119,7 +5139,7 @@
         <v>16</v>
       </c>
       <c r="F152" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -5139,7 +5159,7 @@
         <v>16</v>
       </c>
       <c r="F153" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -5159,7 +5179,7 @@
         <v>16</v>
       </c>
       <c r="F154" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -5179,7 +5199,7 @@
         <v>16</v>
       </c>
       <c r="F155" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -5199,7 +5219,7 @@
         <v>16</v>
       </c>
       <c r="F156" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -5219,7 +5239,7 @@
         <v>16</v>
       </c>
       <c r="F157" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -5239,7 +5259,7 @@
         <v>16</v>
       </c>
       <c r="F158" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -5259,7 +5279,7 @@
         <v>16</v>
       </c>
       <c r="F159" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -5279,7 +5299,7 @@
         <v>16</v>
       </c>
       <c r="F160" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -5299,7 +5319,7 @@
         <v>16</v>
       </c>
       <c r="F161" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -5319,7 +5339,7 @@
         <v>16</v>
       </c>
       <c r="F162" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -5339,7 +5359,7 @@
         <v>16</v>
       </c>
       <c r="F163" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -5359,7 +5379,7 @@
         <v>16</v>
       </c>
       <c r="F164" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -5379,7 +5399,7 @@
         <v>16</v>
       </c>
       <c r="F165" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -5399,7 +5419,7 @@
         <v>16</v>
       </c>
       <c r="F166" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -5419,7 +5439,7 @@
         <v>16</v>
       </c>
       <c r="F167" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -5439,7 +5459,7 @@
         <v>16</v>
       </c>
       <c r="F168" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -5459,7 +5479,7 @@
         <v>16</v>
       </c>
       <c r="F169" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -5479,7 +5499,7 @@
         <v>16</v>
       </c>
       <c r="F170" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -5499,7 +5519,7 @@
         <v>16</v>
       </c>
       <c r="F171" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -5519,7 +5539,7 @@
         <v>16</v>
       </c>
       <c r="F172" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5539,7 +5559,7 @@
         <v>16</v>
       </c>
       <c r="F173" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5559,7 +5579,7 @@
         <v>16</v>
       </c>
       <c r="F174" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5579,7 +5599,7 @@
         <v>16</v>
       </c>
       <c r="F175" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5599,7 +5619,7 @@
         <v>16</v>
       </c>
       <c r="F176" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -5619,7 +5639,7 @@
         <v>16</v>
       </c>
       <c r="F177" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5639,7 +5659,7 @@
         <v>16</v>
       </c>
       <c r="F178" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -5659,7 +5679,7 @@
         <v>16</v>
       </c>
       <c r="F179" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5679,7 +5699,7 @@
         <v>16</v>
       </c>
       <c r="F180" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5699,7 +5719,7 @@
         <v>16</v>
       </c>
       <c r="F181" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5719,7 +5739,7 @@
         <v>16</v>
       </c>
       <c r="F182" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5739,7 +5759,7 @@
         <v>16</v>
       </c>
       <c r="F183" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5759,7 +5779,7 @@
         <v>16</v>
       </c>
       <c r="F184" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5779,7 +5799,7 @@
         <v>16</v>
       </c>
       <c r="F185" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5799,7 +5819,7 @@
         <v>16</v>
       </c>
       <c r="F186" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5819,7 +5839,7 @@
         <v>16</v>
       </c>
       <c r="F187" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5839,7 +5859,7 @@
         <v>16</v>
       </c>
       <c r="F188" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5859,7 +5879,7 @@
         <v>16</v>
       </c>
       <c r="F189" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5879,7 +5899,7 @@
         <v>16</v>
       </c>
       <c r="F190" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5899,7 +5919,7 @@
         <v>16</v>
       </c>
       <c r="F191" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5919,7 +5939,7 @@
         <v>16</v>
       </c>
       <c r="F192" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5939,7 +5959,7 @@
         <v>16</v>
       </c>
       <c r="F193" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5959,7 +5979,7 @@
         <v>16</v>
       </c>
       <c r="F194" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5979,7 +5999,7 @@
         <v>16</v>
       </c>
       <c r="F195" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5999,7 +6019,7 @@
         <v>16</v>
       </c>
       <c r="F196" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -6019,7 +6039,7 @@
         <v>16</v>
       </c>
       <c r="F197" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -6039,7 +6059,7 @@
         <v>16</v>
       </c>
       <c r="F198" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -6059,7 +6079,7 @@
         <v>16</v>
       </c>
       <c r="F199" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -6079,7 +6099,7 @@
         <v>16</v>
       </c>
       <c r="F200" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -6099,7 +6119,7 @@
         <v>16</v>
       </c>
       <c r="F201" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -6119,7 +6139,7 @@
         <v>16</v>
       </c>
       <c r="F202" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -6139,7 +6159,7 @@
         <v>16</v>
       </c>
       <c r="F203" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -6159,7 +6179,7 @@
         <v>16</v>
       </c>
       <c r="F204" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -6179,7 +6199,7 @@
         <v>16</v>
       </c>
       <c r="F205" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -6199,7 +6219,7 @@
         <v>16</v>
       </c>
       <c r="F206" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -6219,7 +6239,7 @@
         <v>16</v>
       </c>
       <c r="F207" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -6239,7 +6259,7 @@
         <v>16</v>
       </c>
       <c r="F208" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -6259,7 +6279,7 @@
         <v>16</v>
       </c>
       <c r="F209" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -6279,7 +6299,7 @@
         <v>16</v>
       </c>
       <c r="F210" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -6299,7 +6319,7 @@
         <v>16</v>
       </c>
       <c r="F211" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -6319,7 +6339,7 @@
         <v>15</v>
       </c>
       <c r="F212" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -6339,7 +6359,7 @@
         <v>15</v>
       </c>
       <c r="F213" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -6359,7 +6379,7 @@
         <v>15</v>
       </c>
       <c r="F214" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -6379,7 +6399,7 @@
         <v>15</v>
       </c>
       <c r="F215" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -6399,7 +6419,7 @@
         <v>15</v>
       </c>
       <c r="F216" t="s">
-        <v>386</v>
+        <v>552</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -6419,7 +6439,7 @@
         <v>15</v>
       </c>
       <c r="F217" t="s">
-        <v>387</v>
+        <v>553</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -6439,7 +6459,7 @@
         <v>15</v>
       </c>
       <c r="F218" t="s">
-        <v>385</v>
+        <v>554</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -6459,7 +6479,7 @@
         <v>15</v>
       </c>
       <c r="F219" t="s">
-        <v>388</v>
+        <v>555</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -6479,7 +6499,7 @@
         <v>15</v>
       </c>
       <c r="F220" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -6499,7 +6519,7 @@
         <v>15</v>
       </c>
       <c r="F221" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -6519,7 +6539,7 @@
         <v>15</v>
       </c>
       <c r="F222" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -6539,7 +6559,7 @@
         <v>15</v>
       </c>
       <c r="F223" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -6559,7 +6579,7 @@
         <v>15</v>
       </c>
       <c r="F224" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -6579,7 +6599,7 @@
         <v>15</v>
       </c>
       <c r="F225" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -6599,7 +6619,7 @@
         <v>15</v>
       </c>
       <c r="F226" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -6619,7 +6639,7 @@
         <v>15</v>
       </c>
       <c r="F227" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -6639,7 +6659,7 @@
         <v>15</v>
       </c>
       <c r="F228" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -6659,7 +6679,7 @@
         <v>15</v>
       </c>
       <c r="F229" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -6679,7 +6699,7 @@
         <v>15</v>
       </c>
       <c r="F230" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -6699,7 +6719,7 @@
         <v>15</v>
       </c>
       <c r="F231" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -6719,7 +6739,7 @@
         <v>15</v>
       </c>
       <c r="F232" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -6739,7 +6759,7 @@
         <v>15</v>
       </c>
       <c r="F233" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -6759,7 +6779,7 @@
         <v>15</v>
       </c>
       <c r="F234" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -6779,7 +6799,7 @@
         <v>15</v>
       </c>
       <c r="F235" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -6799,7 +6819,7 @@
         <v>15</v>
       </c>
       <c r="F236" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -6819,7 +6839,7 @@
         <v>15</v>
       </c>
       <c r="F237" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -6839,7 +6859,7 @@
         <v>15</v>
       </c>
       <c r="F238" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -6859,7 +6879,7 @@
         <v>15</v>
       </c>
       <c r="F239" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -6879,7 +6899,7 @@
         <v>15</v>
       </c>
       <c r="F240" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -6899,7 +6919,7 @@
         <v>15</v>
       </c>
       <c r="F241" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6919,7 +6939,7 @@
         <v>15</v>
       </c>
       <c r="F242" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6939,7 +6959,7 @@
         <v>15</v>
       </c>
       <c r="F243" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6959,7 +6979,7 @@
         <v>15</v>
       </c>
       <c r="F244" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6979,7 +6999,7 @@
         <v>15</v>
       </c>
       <c r="F245" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6999,7 +7019,7 @@
         <v>15</v>
       </c>
       <c r="F246" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -7019,7 +7039,7 @@
         <v>15</v>
       </c>
       <c r="F247" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -7039,7 +7059,7 @@
         <v>15</v>
       </c>
       <c r="F248" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -7059,7 +7079,7 @@
         <v>15</v>
       </c>
       <c r="F249" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -7079,7 +7099,7 @@
         <v>15</v>
       </c>
       <c r="F250" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -7099,7 +7119,7 @@
         <v>15</v>
       </c>
       <c r="F251" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -7119,7 +7139,7 @@
         <v>15</v>
       </c>
       <c r="F252" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -7139,7 +7159,7 @@
         <v>15</v>
       </c>
       <c r="F253" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -7159,7 +7179,7 @@
         <v>15</v>
       </c>
       <c r="F254" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -7179,7 +7199,7 @@
         <v>15</v>
       </c>
       <c r="F255" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -7199,7 +7219,7 @@
         <v>15</v>
       </c>
       <c r="F256" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -7219,7 +7239,7 @@
         <v>15</v>
       </c>
       <c r="F257" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -7239,7 +7259,7 @@
         <v>15</v>
       </c>
       <c r="F258" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -7259,7 +7279,7 @@
         <v>15</v>
       </c>
       <c r="F259" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -7279,7 +7299,7 @@
         <v>15</v>
       </c>
       <c r="F260" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -7299,7 +7319,7 @@
         <v>15</v>
       </c>
       <c r="F261" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -7319,7 +7339,7 @@
         <v>15</v>
       </c>
       <c r="F262" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -7339,7 +7359,7 @@
         <v>15</v>
       </c>
       <c r="F263" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -7359,7 +7379,7 @@
         <v>15</v>
       </c>
       <c r="F264" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -7379,7 +7399,7 @@
         <v>15</v>
       </c>
       <c r="F265" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -7399,7 +7419,7 @@
         <v>15</v>
       </c>
       <c r="F266" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -7419,7 +7439,7 @@
         <v>15</v>
       </c>
       <c r="F267" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -7439,7 +7459,7 @@
         <v>15</v>
       </c>
       <c r="F268" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -7459,7 +7479,7 @@
         <v>15</v>
       </c>
       <c r="F269" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -7479,7 +7499,7 @@
         <v>15</v>
       </c>
       <c r="F270" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -7499,7 +7519,7 @@
         <v>15</v>
       </c>
       <c r="F271" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -7519,7 +7539,7 @@
         <v>15</v>
       </c>
       <c r="F272" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -7539,7 +7559,7 @@
         <v>15</v>
       </c>
       <c r="F273" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -7559,7 +7579,7 @@
         <v>15</v>
       </c>
       <c r="F274" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -7579,7 +7599,7 @@
         <v>15</v>
       </c>
       <c r="F275" t="s">
-        <v>433</v>
+        <v>558</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -7599,7 +7619,7 @@
         <v>15</v>
       </c>
       <c r="F276" t="s">
-        <v>434</v>
+        <v>559</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -7619,7 +7639,7 @@
         <v>15</v>
       </c>
       <c r="F277" t="s">
-        <v>435</v>
+        <v>551</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -7639,7 +7659,7 @@
         <v>15</v>
       </c>
       <c r="F278" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -7659,7 +7679,7 @@
         <v>15</v>
       </c>
       <c r="F279" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -7679,7 +7699,7 @@
         <v>15</v>
       </c>
       <c r="F280" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -7699,7 +7719,7 @@
         <v>15</v>
       </c>
       <c r="F281" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -7719,7 +7739,7 @@
         <v>15</v>
       </c>
       <c r="F282" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -7739,7 +7759,7 @@
         <v>15</v>
       </c>
       <c r="F283" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -7759,7 +7779,7 @@
         <v>15</v>
       </c>
       <c r="F284" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -7779,7 +7799,7 @@
         <v>15</v>
       </c>
       <c r="F285" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -7799,7 +7819,7 @@
         <v>15</v>
       </c>
       <c r="F286" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -7819,7 +7839,7 @@
         <v>15</v>
       </c>
       <c r="F287" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -7839,7 +7859,7 @@
         <v>15</v>
       </c>
       <c r="F288" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -7859,7 +7879,7 @@
         <v>15</v>
       </c>
       <c r="F289" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -7879,7 +7899,7 @@
         <v>15</v>
       </c>
       <c r="F290" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -7899,7 +7919,7 @@
         <v>15</v>
       </c>
       <c r="F291" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -7919,7 +7939,7 @@
         <v>15</v>
       </c>
       <c r="F292" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -7939,7 +7959,7 @@
         <v>15</v>
       </c>
       <c r="F293" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -7959,7 +7979,7 @@
         <v>15</v>
       </c>
       <c r="F294" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -8999,7 +9019,7 @@
         <v>16</v>
       </c>
       <c r="F346" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -9019,7 +9039,7 @@
         <v>16</v>
       </c>
       <c r="F347" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -9039,7 +9059,7 @@
         <v>16</v>
       </c>
       <c r="F348" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -9059,7 +9079,7 @@
         <v>16</v>
       </c>
       <c r="F349" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -9079,7 +9099,7 @@
         <v>16</v>
       </c>
       <c r="F350" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -9099,7 +9119,7 @@
         <v>16</v>
       </c>
       <c r="F351" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -9119,7 +9139,7 @@
         <v>16</v>
       </c>
       <c r="F352" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -9139,7 +9159,7 @@
         <v>16</v>
       </c>
       <c r="F353" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -9159,7 +9179,7 @@
         <v>16</v>
       </c>
       <c r="F354" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -9179,7 +9199,7 @@
         <v>16</v>
       </c>
       <c r="F355" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -9199,7 +9219,7 @@
         <v>16</v>
       </c>
       <c r="F356" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -9219,7 +9239,7 @@
         <v>16</v>
       </c>
       <c r="F357" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -9239,7 +9259,7 @@
         <v>16</v>
       </c>
       <c r="F358" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -9259,7 +9279,7 @@
         <v>16</v>
       </c>
       <c r="F359" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -9279,7 +9299,7 @@
         <v>16</v>
       </c>
       <c r="F360" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -10959,7 +10979,7 @@
         <v>15</v>
       </c>
       <c r="F444" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
     </row>
     <row r="445" spans="1:6">
@@ -10979,7 +10999,7 @@
         <v>15</v>
       </c>
       <c r="F445" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
     <row r="446" spans="1:6">
@@ -10999,7 +11019,7 @@
         <v>15</v>
       </c>
       <c r="F446" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="447" spans="1:6">
@@ -11019,7 +11039,7 @@
         <v>15</v>
       </c>
       <c r="F447" t="s">
-        <v>470</v>
+        <v>560</v>
       </c>
     </row>
     <row r="448" spans="1:6">
@@ -11039,7 +11059,7 @@
         <v>15</v>
       </c>
       <c r="F448" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
     </row>
     <row r="449" spans="1:6">
@@ -11059,7 +11079,7 @@
         <v>15</v>
       </c>
       <c r="F449" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
     </row>
     <row r="450" spans="1:6">
@@ -11079,7 +11099,7 @@
         <v>15</v>
       </c>
       <c r="F450" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
     </row>
     <row r="451" spans="1:6">
@@ -11099,7 +11119,7 @@
         <v>15</v>
       </c>
       <c r="F451" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
     </row>
     <row r="452" spans="1:6">
@@ -11119,7 +11139,7 @@
         <v>15</v>
       </c>
       <c r="F452" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
     </row>
     <row r="453" spans="1:6">
@@ -11539,7 +11559,7 @@
         <v>15</v>
       </c>
       <c r="F473" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="474" spans="1:6">
@@ -11559,7 +11579,7 @@
         <v>16</v>
       </c>
       <c r="F474" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
     </row>
     <row r="475" spans="1:6">
@@ -11579,7 +11599,7 @@
         <v>16</v>
       </c>
       <c r="F475" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
     </row>
     <row r="476" spans="1:6">
@@ -11599,7 +11619,7 @@
         <v>16</v>
       </c>
       <c r="F476" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
     </row>
     <row r="477" spans="1:6">
@@ -11619,7 +11639,7 @@
         <v>16</v>
       </c>
       <c r="F477" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
     </row>
     <row r="478" spans="1:6">
@@ -11639,7 +11659,7 @@
         <v>16</v>
       </c>
       <c r="F478" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
     </row>
     <row r="479" spans="1:6">
@@ -11659,7 +11679,7 @@
         <v>16</v>
       </c>
       <c r="F479" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
     </row>
     <row r="480" spans="1:6">
@@ -11679,7 +11699,7 @@
         <v>16</v>
       </c>
       <c r="F480" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
     </row>
     <row r="481" spans="1:6">
@@ -11699,7 +11719,7 @@
         <v>16</v>
       </c>
       <c r="F481" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
     </row>
     <row r="482" spans="1:6">
@@ -11719,7 +11739,7 @@
         <v>16</v>
       </c>
       <c r="F482" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
     </row>
     <row r="483" spans="1:6">
@@ -11739,7 +11759,7 @@
         <v>16</v>
       </c>
       <c r="F483" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
     </row>
     <row r="484" spans="1:6">
@@ -11759,7 +11779,7 @@
         <v>16</v>
       </c>
       <c r="F484" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
     </row>
     <row r="485" spans="1:6">
@@ -11779,7 +11799,7 @@
         <v>16</v>
       </c>
       <c r="F485" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
     </row>
     <row r="486" spans="1:6">
@@ -11799,7 +11819,7 @@
         <v>16</v>
       </c>
       <c r="F486" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
     </row>
     <row r="487" spans="1:6">
@@ -11819,7 +11839,7 @@
         <v>16</v>
       </c>
       <c r="F487" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
     </row>
     <row r="488" spans="1:6">
@@ -11839,7 +11859,7 @@
         <v>16</v>
       </c>
       <c r="F488" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
     </row>
     <row r="489" spans="1:6">
@@ -11859,7 +11879,7 @@
         <v>16</v>
       </c>
       <c r="F489" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="490" spans="1:6">
@@ -11879,7 +11899,7 @@
         <v>16</v>
       </c>
       <c r="F490" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
     </row>
     <row r="491" spans="1:6">
@@ -11899,7 +11919,7 @@
         <v>16</v>
       </c>
       <c r="F491" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="492" spans="1:6">
@@ -11919,7 +11939,7 @@
         <v>16</v>
       </c>
       <c r="F492" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
     </row>
     <row r="493" spans="1:6">
@@ -11939,7 +11959,7 @@
         <v>16</v>
       </c>
       <c r="F493" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
     </row>
     <row r="494" spans="1:6">
@@ -11959,7 +11979,7 @@
         <v>16</v>
       </c>
       <c r="F494" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
     </row>
     <row r="495" spans="1:6">
@@ -11979,7 +11999,7 @@
         <v>16</v>
       </c>
       <c r="F495" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
     </row>
     <row r="496" spans="1:6">
@@ -11999,7 +12019,7 @@
         <v>16</v>
       </c>
       <c r="F496" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
     </row>
     <row r="497" spans="1:6">
@@ -12019,7 +12039,7 @@
         <v>16</v>
       </c>
       <c r="F497" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
     </row>
     <row r="498" spans="1:6">
@@ -12039,7 +12059,7 @@
         <v>16</v>
       </c>
       <c r="F498" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
     </row>
     <row r="499" spans="1:6">
@@ -12059,7 +12079,7 @@
         <v>16</v>
       </c>
       <c r="F499" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
     </row>
     <row r="500" spans="1:6">
@@ -12099,7 +12119,7 @@
         <v>16</v>
       </c>
       <c r="F501" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
     </row>
     <row r="502" spans="1:6">
@@ -12119,7 +12139,7 @@
         <v>16</v>
       </c>
       <c r="F502" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
     </row>
     <row r="503" spans="1:6">
@@ -12139,7 +12159,7 @@
         <v>16</v>
       </c>
       <c r="F503" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
     </row>
     <row r="504" spans="1:6">
@@ -12159,7 +12179,7 @@
         <v>16</v>
       </c>
       <c r="F504" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
     </row>
     <row r="505" spans="1:6">
@@ -12179,7 +12199,7 @@
         <v>16</v>
       </c>
       <c r="F505" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
     </row>
     <row r="506" spans="1:6">
@@ -12199,7 +12219,7 @@
         <v>16</v>
       </c>
       <c r="F506" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
     </row>
     <row r="507" spans="1:6">
@@ -12219,7 +12239,7 @@
         <v>16</v>
       </c>
       <c r="F507" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="508" spans="1:6">
@@ -12239,7 +12259,7 @@
         <v>16</v>
       </c>
       <c r="F508" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
     </row>
     <row r="509" spans="1:6">
@@ -12259,7 +12279,7 @@
         <v>16</v>
       </c>
       <c r="F509" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
     </row>
     <row r="510" spans="1:6">
@@ -12279,7 +12299,7 @@
         <v>16</v>
       </c>
       <c r="F510" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
     </row>
     <row r="511" spans="1:6">
@@ -12299,7 +12319,7 @@
         <v>16</v>
       </c>
       <c r="F511" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="512" spans="1:6">
@@ -12319,7 +12339,7 @@
         <v>16</v>
       </c>
       <c r="F512" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
     </row>
     <row r="513" spans="1:6">
@@ -12339,7 +12359,7 @@
         <v>16</v>
       </c>
       <c r="F513" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
     </row>
     <row r="514" spans="1:6">
@@ -12359,7 +12379,7 @@
         <v>16</v>
       </c>
       <c r="F514" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
     </row>
     <row r="515" spans="1:6">
@@ -12379,7 +12399,7 @@
         <v>16</v>
       </c>
       <c r="F515" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="516" spans="1:6">
@@ -12399,7 +12419,7 @@
         <v>16</v>
       </c>
       <c r="F516" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
     </row>
     <row r="517" spans="1:6">
@@ -12419,7 +12439,7 @@
         <v>16</v>
       </c>
       <c r="F517" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
     </row>
     <row r="518" spans="1:6">
@@ -12439,7 +12459,7 @@
         <v>16</v>
       </c>
       <c r="F518" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
     </row>
     <row r="519" spans="1:6">
@@ -12459,7 +12479,7 @@
         <v>16</v>
       </c>
       <c r="F519" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
     </row>
     <row r="520" spans="1:6">
@@ -12479,7 +12499,7 @@
         <v>16</v>
       </c>
       <c r="F520" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
     </row>
     <row r="521" spans="1:6">
@@ -12499,7 +12519,7 @@
         <v>16</v>
       </c>
       <c r="F521" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
     </row>
     <row r="522" spans="1:6">
@@ -12519,7 +12539,7 @@
         <v>16</v>
       </c>
       <c r="F522" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
     </row>
     <row r="523" spans="1:6">
@@ -12539,7 +12559,7 @@
         <v>16</v>
       </c>
       <c r="F523" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
     </row>
     <row r="524" spans="1:6">
@@ -12559,7 +12579,7 @@
         <v>16</v>
       </c>
       <c r="F524" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
     </row>
     <row r="525" spans="1:6">
@@ -12579,7 +12599,7 @@
         <v>16</v>
       </c>
       <c r="F525" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
     </row>
     <row r="526" spans="1:6">
@@ -12599,7 +12619,7 @@
         <v>16</v>
       </c>
       <c r="F526" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
     </row>
     <row r="527" spans="1:6">
@@ -12619,7 +12639,7 @@
         <v>16</v>
       </c>
       <c r="F527" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
     </row>
     <row r="528" spans="1:6">
@@ -12639,7 +12659,7 @@
         <v>16</v>
       </c>
       <c r="F528" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
     </row>
     <row r="529" spans="1:6">
@@ -12659,7 +12679,7 @@
         <v>16</v>
       </c>
       <c r="F529" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
     </row>
     <row r="530" spans="1:6">
@@ -12679,7 +12699,7 @@
         <v>16</v>
       </c>
       <c r="F530" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
     </row>
     <row r="531" spans="1:6">
@@ -12699,7 +12719,7 @@
         <v>16</v>
       </c>
       <c r="F531" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
     </row>
     <row r="532" spans="1:6">
@@ -12719,7 +12739,7 @@
         <v>16</v>
       </c>
       <c r="F532" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
     </row>
     <row r="533" spans="1:6">
@@ -12739,7 +12759,7 @@
         <v>16</v>
       </c>
       <c r="F533" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
     </row>
     <row r="534" spans="1:6">
@@ -12759,7 +12779,7 @@
         <v>16</v>
       </c>
       <c r="F534" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="535" spans="1:6">
@@ -12779,7 +12799,7 @@
         <v>16</v>
       </c>
       <c r="F535" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="536" spans="1:6">
@@ -12799,7 +12819,7 @@
         <v>16</v>
       </c>
       <c r="F536" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="537" spans="1:6">
@@ -12819,7 +12839,7 @@
         <v>16</v>
       </c>
       <c r="F537" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
     </row>
     <row r="538" spans="1:6">
@@ -12839,7 +12859,7 @@
         <v>16</v>
       </c>
       <c r="F538" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
     </row>
     <row r="539" spans="1:6">
@@ -12859,7 +12879,7 @@
         <v>16</v>
       </c>
       <c r="F539" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
     </row>
     <row r="540" spans="1:6">
@@ -12879,7 +12899,7 @@
         <v>16</v>
       </c>
       <c r="F540" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
     </row>
     <row r="541" spans="1:6">
@@ -12899,7 +12919,7 @@
         <v>16</v>
       </c>
       <c r="F541" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
     </row>
     <row r="542" spans="1:6">
@@ -12919,7 +12939,7 @@
         <v>16</v>
       </c>
       <c r="F542" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
     </row>
     <row r="543" spans="1:6">
@@ -12939,7 +12959,7 @@
         <v>16</v>
       </c>
       <c r="F543" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
     </row>
     <row r="544" spans="1:6">
@@ -12959,7 +12979,7 @@
         <v>16</v>
       </c>
       <c r="F544" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
     </row>
     <row r="545" spans="1:6">
@@ -12979,7 +12999,7 @@
         <v>16</v>
       </c>
       <c r="F545" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
     </row>
     <row r="546" spans="1:6">
@@ -12999,7 +13019,7 @@
         <v>16</v>
       </c>
       <c r="F546" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
     </row>
     <row r="547" spans="1:6">
@@ -13019,7 +13039,7 @@
         <v>16</v>
       </c>
       <c r="F547" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
     </row>
     <row r="548" spans="1:6">
@@ -13039,7 +13059,7 @@
         <v>16</v>
       </c>
       <c r="F548" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
     </row>
     <row r="549" spans="1:6">
@@ -13059,7 +13079,7 @@
         <v>16</v>
       </c>
       <c r="F549" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
     </row>
     <row r="550" spans="1:6">
@@ -13079,7 +13099,7 @@
         <v>16</v>
       </c>
       <c r="F550" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
     </row>
     <row r="551" spans="1:6">
@@ -13099,7 +13119,7 @@
         <v>16</v>
       </c>
       <c r="F551" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
     </row>
     <row r="552" spans="1:6">
@@ -13119,7 +13139,7 @@
         <v>16</v>
       </c>
       <c r="F552" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
     </row>
     <row r="553" spans="1:6">
@@ -13139,7 +13159,7 @@
         <v>16</v>
       </c>
       <c r="F553" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
     </row>
     <row r="554" spans="1:6">
@@ -13159,7 +13179,7 @@
         <v>16</v>
       </c>
       <c r="F554" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
     </row>
     <row r="555" spans="1:6">
@@ -13179,7 +13199,7 @@
         <v>16</v>
       </c>
       <c r="F555" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
     </row>
     <row r="556" spans="1:6">
@@ -13199,7 +13219,7 @@
         <v>16</v>
       </c>
       <c r="F556" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
     </row>
     <row r="557" spans="1:6">
@@ -13219,7 +13239,7 @@
         <v>16</v>
       </c>
       <c r="F557" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
     </row>
     <row r="558" spans="1:6">
@@ -13239,7 +13259,7 @@
         <v>16</v>
       </c>
       <c r="F558" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
     </row>
     <row r="559" spans="1:6">
@@ -13259,7 +13279,7 @@
         <v>16</v>
       </c>
       <c r="F559" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
     </row>
     <row r="560" spans="1:6">
@@ -13279,7 +13299,7 @@
         <v>16</v>
       </c>
       <c r="F560" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
     </row>
     <row r="561" spans="1:6">
@@ -13299,7 +13319,7 @@
         <v>16</v>
       </c>
       <c r="F561" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
     </row>
     <row r="562" spans="1:6">
@@ -13319,7 +13339,7 @@
         <v>16</v>
       </c>
       <c r="F562" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
     </row>
     <row r="563" spans="1:6">
@@ -13339,7 +13359,7 @@
         <v>16</v>
       </c>
       <c r="F563" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
     </row>
     <row r="564" spans="1:6">
@@ -13359,7 +13379,7 @@
         <v>16</v>
       </c>
       <c r="F564" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
     </row>
     <row r="565" spans="1:6">
@@ -13379,7 +13399,7 @@
         <v>16</v>
       </c>
       <c r="F565" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
     </row>
     <row r="566" spans="1:6">
@@ -13399,7 +13419,7 @@
         <v>16</v>
       </c>
       <c r="F566" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -13412,6 +13432,7 @@
     <sortCondition ref="F2:F566"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
